--- a/doc/插件/渠道商/01管理/项目管理模板——芸众商城渠道商插件.xlsx
+++ b/doc/插件/渠道商/01管理/项目管理模板——芸众商城渠道商插件.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="332">
   <si>
     <t>项目管理模板</t>
   </si>
@@ -424,6 +424,15 @@
     <t>接上文（零售订单需要单独处理，例如：会员一个订单购买了五件商品，其中只有一件商品属于我，我的订单管理职能看到这个订单的属于我的商品）</t>
   </si>
   <si>
+    <t>3.1_12</t>
+  </si>
+  <si>
+    <t>渠道商升级</t>
+  </si>
+  <si>
+    <t>渠道商根据后台条件编写升级程序</t>
+  </si>
+  <si>
     <t>渠道插件</t>
   </si>
   <si>
@@ -626,6 +635,9 @@
   </si>
   <si>
     <t>1-6.7.8立项分析确认需求</t>
+  </si>
+  <si>
+    <t>finish</t>
   </si>
   <si>
     <t>8日正式立项</t>
@@ -1180,7 +1192,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="16"/>
+      <color indexed="9"/>
       <name val="微软雅黑"/>
     </font>
   </fonts>
@@ -1729,7 +1741,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1922,15 +1934,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1949,29 +1955,26 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" fillId="7" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
@@ -3362,20 +3365,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.71429" defaultRowHeight="13.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.57812" style="117" customWidth="1"/>
-    <col min="2" max="2" width="15.1562" style="117" customWidth="1"/>
-    <col min="3" max="3" width="13.1562" style="117" customWidth="1"/>
-    <col min="4" max="4" width="13.1562" style="117" customWidth="1"/>
-    <col min="5" max="5" width="12.7344" style="117" customWidth="1"/>
-    <col min="6" max="6" width="19.1562" style="117" customWidth="1"/>
-    <col min="7" max="7" width="10.7344" style="117" customWidth="1"/>
-    <col min="8" max="8" width="12.1562" style="117" customWidth="1"/>
-    <col min="9" max="256" width="9.73438" style="117" customWidth="1"/>
+    <col min="1" max="1" width="5.57812" style="114" customWidth="1"/>
+    <col min="2" max="2" width="15.1562" style="114" customWidth="1"/>
+    <col min="3" max="3" width="13.1562" style="114" customWidth="1"/>
+    <col min="4" max="4" width="13.1562" style="114" customWidth="1"/>
+    <col min="5" max="5" width="12.7344" style="114" customWidth="1"/>
+    <col min="6" max="6" width="19.1562" style="114" customWidth="1"/>
+    <col min="7" max="7" width="10.7344" style="114" customWidth="1"/>
+    <col min="8" max="8" width="12.1562" style="114" customWidth="1"/>
+    <col min="9" max="256" width="9.73438" style="114" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.5" customHeight="1">
       <c r="A1" t="s" s="13">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B1" s="63"/>
       <c r="C1" s="63"/>
@@ -3383,7 +3386,7 @@
       <c r="E1" s="63"/>
       <c r="F1" s="63"/>
       <c r="G1" s="63"/>
-      <c r="H1" s="65"/>
+      <c r="H1" s="64"/>
     </row>
     <row r="2" ht="17" customHeight="1">
       <c r="A2" t="s" s="16">
@@ -3403,7 +3406,7 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" t="s" s="21">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" t="s" s="21">
@@ -3411,7 +3414,7 @@
       </c>
       <c r="F3" s="20"/>
       <c r="G3" t="s" s="21">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H3" s="22"/>
     </row>
@@ -3421,7 +3424,7 @@
       </c>
       <c r="B4" s="20"/>
       <c r="C4" t="s" s="21">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" t="s" s="21">
@@ -3429,7 +3432,7 @@
       </c>
       <c r="F4" s="20"/>
       <c r="G4" t="s" s="21">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H4" s="22"/>
     </row>
@@ -3439,7 +3442,7 @@
       </c>
       <c r="B5" s="20"/>
       <c r="C5" t="s" s="21">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" t="s" s="21">
@@ -3452,358 +3455,359 @@
       <c r="H5" s="22"/>
     </row>
     <row r="6" ht="19" customHeight="1">
-      <c r="A6" t="s" s="118">
-        <v>253</v>
-      </c>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="119"/>
+      <c r="A6" t="s" s="115">
+        <v>257</v>
+      </c>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="116"/>
     </row>
     <row r="7" ht="19" customHeight="1">
-      <c r="A7" t="s" s="67">
+      <c r="A7" t="s" s="65">
         <v>1</v>
       </c>
-      <c r="B7" t="s" s="70">
-        <v>254</v>
-      </c>
-      <c r="C7" t="s" s="70">
-        <v>255</v>
-      </c>
-      <c r="D7" t="s" s="70">
-        <v>256</v>
-      </c>
-      <c r="E7" s="68"/>
-      <c r="F7" t="s" s="70">
-        <v>257</v>
-      </c>
-      <c r="G7" t="s" s="70">
+      <c r="B7" t="s" s="68">
         <v>258</v>
       </c>
-      <c r="H7" t="s" s="71">
+      <c r="C7" t="s" s="68">
         <v>259</v>
       </c>
+      <c r="D7" t="s" s="68">
+        <v>260</v>
+      </c>
+      <c r="E7" s="66"/>
+      <c r="F7" t="s" s="68">
+        <v>261</v>
+      </c>
+      <c r="G7" t="s" s="68">
+        <v>262</v>
+      </c>
+      <c r="H7" t="s" s="69">
+        <v>263</v>
+      </c>
     </row>
     <row r="8" ht="35" customHeight="1">
-      <c r="A8" s="120">
+      <c r="A8" s="117">
         <v>1</v>
       </c>
-      <c r="B8" s="68">
+      <c r="B8" s="66">
         <v>38549</v>
       </c>
-      <c r="C8" t="s" s="70">
-        <v>260</v>
-      </c>
-      <c r="D8" t="s" s="70">
-        <v>261</v>
-      </c>
-      <c r="E8" s="68"/>
-      <c r="F8" t="s" s="70">
-        <v>262</v>
-      </c>
-      <c r="G8" t="s" s="70">
-        <v>207</v>
-      </c>
-      <c r="H8" t="s" s="71">
-        <v>183</v>
+      <c r="C8" t="s" s="68">
+        <v>264</v>
+      </c>
+      <c r="D8" t="s" s="68">
+        <v>265</v>
+      </c>
+      <c r="E8" s="66"/>
+      <c r="F8" t="s" s="68">
+        <v>266</v>
+      </c>
+      <c r="G8" t="s" s="68">
+        <v>211</v>
+      </c>
+      <c r="H8" t="s" s="69">
+        <v>187</v>
       </c>
     </row>
     <row r="9" ht="35" customHeight="1">
-      <c r="A9" s="120">
+      <c r="A9" s="117">
         <v>2</v>
       </c>
-      <c r="B9" s="68">
+      <c r="B9" s="66">
         <v>38552</v>
       </c>
-      <c r="C9" t="s" s="70">
-        <v>263</v>
-      </c>
-      <c r="D9" t="s" s="70">
-        <v>264</v>
-      </c>
-      <c r="E9" s="68"/>
-      <c r="F9" t="s" s="70">
-        <v>265</v>
-      </c>
-      <c r="G9" t="s" s="70">
-        <v>266</v>
-      </c>
-      <c r="H9" t="s" s="71">
-        <v>207</v>
+      <c r="C9" t="s" s="68">
+        <v>267</v>
+      </c>
+      <c r="D9" t="s" s="68">
+        <v>268</v>
+      </c>
+      <c r="E9" s="66"/>
+      <c r="F9" t="s" s="68">
+        <v>269</v>
+      </c>
+      <c r="G9" t="s" s="68">
+        <v>270</v>
+      </c>
+      <c r="H9" t="s" s="69">
+        <v>211</v>
       </c>
     </row>
     <row r="10" ht="35" customHeight="1">
-      <c r="A10" s="120">
+      <c r="A10" s="117">
         <v>3</v>
       </c>
-      <c r="B10" s="68">
+      <c r="B10" s="66">
         <v>38552</v>
       </c>
-      <c r="C10" t="s" s="70">
-        <v>263</v>
-      </c>
-      <c r="D10" t="s" s="70">
+      <c r="C10" t="s" s="68">
         <v>267</v>
       </c>
-      <c r="E10" s="68"/>
-      <c r="F10" t="s" s="70">
-        <v>268</v>
-      </c>
-      <c r="G10" t="s" s="70">
-        <v>207</v>
-      </c>
-      <c r="H10" t="s" s="71">
-        <v>183</v>
+      <c r="D10" t="s" s="68">
+        <v>271</v>
+      </c>
+      <c r="E10" s="66"/>
+      <c r="F10" t="s" s="68">
+        <v>272</v>
+      </c>
+      <c r="G10" t="s" s="68">
+        <v>211</v>
+      </c>
+      <c r="H10" t="s" s="69">
+        <v>187</v>
       </c>
     </row>
     <row r="11" ht="19" customHeight="1">
-      <c r="A11" t="s" s="118">
-        <v>269</v>
-      </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="119"/>
+      <c r="A11" t="s" s="115">
+        <v>273</v>
+      </c>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="116"/>
     </row>
     <row r="12" ht="19" customHeight="1">
-      <c r="A12" t="s" s="72">
-        <v>270</v>
-      </c>
-      <c r="B12" s="106"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="76"/>
+      <c r="A12" t="s" s="70">
+        <v>274</v>
+      </c>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="74"/>
     </row>
     <row r="13" ht="19" customHeight="1">
-      <c r="A13" t="s" s="72">
-        <v>271</v>
-      </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="76"/>
+      <c r="A13" t="s" s="70">
+        <v>275</v>
+      </c>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="74"/>
     </row>
     <row r="14" ht="19" customHeight="1">
-      <c r="A14" t="s" s="72">
-        <v>272</v>
-      </c>
-      <c r="B14" s="106"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="76"/>
+      <c r="A14" t="s" s="70">
+        <v>276</v>
+      </c>
+      <c r="B14" s="103"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="74"/>
     </row>
     <row r="15" ht="19" customHeight="1">
-      <c r="A15" t="s" s="72">
-        <v>273</v>
-      </c>
-      <c r="B15" s="106"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="76"/>
+      <c r="A15" t="s" s="70">
+        <v>277</v>
+      </c>
+      <c r="B15" s="103"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="74"/>
     </row>
     <row r="16" ht="19" customHeight="1">
-      <c r="A16" t="s" s="118">
-        <v>274</v>
-      </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="119"/>
+      <c r="A16" t="s" s="115">
+        <v>278</v>
+      </c>
+      <c r="B16" s="112"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="116"/>
     </row>
     <row r="17" ht="19" customHeight="1">
-      <c r="A17" t="s" s="67">
-        <v>275</v>
-      </c>
-      <c r="B17" s="68"/>
-      <c r="C17" t="s" s="70">
-        <v>276</v>
-      </c>
-      <c r="D17" s="68"/>
-      <c r="E17" t="s" s="70">
-        <v>277</v>
-      </c>
-      <c r="F17" s="68"/>
-      <c r="G17" t="s" s="70">
-        <v>278</v>
-      </c>
-      <c r="H17" s="69"/>
+      <c r="A17" t="s" s="65">
+        <v>279</v>
+      </c>
+      <c r="B17" s="66"/>
+      <c r="C17" t="s" s="68">
+        <v>280</v>
+      </c>
+      <c r="D17" s="66"/>
+      <c r="E17" t="s" s="68">
+        <v>281</v>
+      </c>
+      <c r="F17" s="66"/>
+      <c r="G17" t="s" s="68">
+        <v>282</v>
+      </c>
+      <c r="H17" s="67"/>
     </row>
     <row r="18" ht="16.5" customHeight="1">
-      <c r="A18" t="s" s="67">
-        <v>279</v>
-      </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" t="s" s="70">
-        <v>280</v>
-      </c>
-      <c r="F18" s="68"/>
-      <c r="G18" t="s" s="70">
-        <v>281</v>
-      </c>
-      <c r="H18" s="69"/>
+      <c r="A18" t="s" s="65">
+        <v>283</v>
+      </c>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" t="s" s="68">
+        <v>284</v>
+      </c>
+      <c r="F18" s="66"/>
+      <c r="G18" t="s" s="68">
+        <v>285</v>
+      </c>
+      <c r="H18" s="67"/>
     </row>
     <row r="19" ht="29.25" customHeight="1">
-      <c r="A19" t="s" s="67">
-        <v>282</v>
-      </c>
-      <c r="B19" s="68"/>
-      <c r="C19" t="s" s="116">
-        <v>283</v>
-      </c>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="76"/>
+      <c r="A19" t="s" s="65">
+        <v>286</v>
+      </c>
+      <c r="B19" s="66"/>
+      <c r="C19" t="s" s="113">
+        <v>287</v>
+      </c>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="74"/>
     </row>
     <row r="20" ht="19" customHeight="1">
-      <c r="A20" t="s" s="67">
-        <v>284</v>
-      </c>
-      <c r="B20" s="68"/>
-      <c r="C20" t="s" s="116">
-        <v>285</v>
-      </c>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="76"/>
+      <c r="A20" t="s" s="65">
+        <v>288</v>
+      </c>
+      <c r="B20" s="66"/>
+      <c r="C20" t="s" s="113">
+        <v>289</v>
+      </c>
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="74"/>
     </row>
     <row r="21" ht="19" customHeight="1">
-      <c r="A21" t="s" s="67">
-        <v>286</v>
-      </c>
-      <c r="B21" s="68"/>
-      <c r="C21" t="s" s="116">
-        <v>287</v>
-      </c>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="76"/>
+      <c r="A21" t="s" s="65">
+        <v>290</v>
+      </c>
+      <c r="B21" s="66"/>
+      <c r="C21" t="s" s="113">
+        <v>291</v>
+      </c>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="74"/>
     </row>
     <row r="22" ht="19" customHeight="1">
-      <c r="A22" t="s" s="67">
-        <v>288</v>
-      </c>
-      <c r="B22" s="68"/>
-      <c r="C22" t="s" s="70">
-        <v>289</v>
-      </c>
-      <c r="D22" s="68"/>
-      <c r="E22" t="s" s="70">
-        <v>290</v>
-      </c>
-      <c r="F22" s="68"/>
-      <c r="G22" t="s" s="70">
-        <v>291</v>
-      </c>
-      <c r="H22" s="69"/>
+      <c r="A22" t="s" s="65">
+        <v>292</v>
+      </c>
+      <c r="B22" s="66"/>
+      <c r="C22" t="s" s="68">
+        <v>293</v>
+      </c>
+      <c r="D22" s="66"/>
+      <c r="E22" t="s" s="68">
+        <v>294</v>
+      </c>
+      <c r="F22" s="66"/>
+      <c r="G22" t="s" s="68">
+        <v>295</v>
+      </c>
+      <c r="H22" s="67"/>
     </row>
     <row r="23" ht="19" customHeight="1">
-      <c r="A23" t="s" s="67">
-        <v>292</v>
-      </c>
-      <c r="B23" s="68"/>
-      <c r="C23" t="s" s="116">
-        <v>293</v>
-      </c>
-      <c r="D23" s="106"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="76"/>
+      <c r="A23" t="s" s="65">
+        <v>296</v>
+      </c>
+      <c r="B23" s="66"/>
+      <c r="C23" t="s" s="113">
+        <v>297</v>
+      </c>
+      <c r="D23" s="103"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="74"/>
     </row>
     <row r="24" ht="19" customHeight="1">
-      <c r="A24" t="s" s="67">
-        <v>294</v>
-      </c>
-      <c r="B24" s="68"/>
-      <c r="C24" t="s" s="70">
-        <v>295</v>
-      </c>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" t="s" s="70">
-        <v>296</v>
-      </c>
-      <c r="G24" t="s" s="70">
-        <v>297</v>
-      </c>
-      <c r="H24" s="69"/>
+      <c r="A24" t="s" s="65">
+        <v>298</v>
+      </c>
+      <c r="B24" s="66"/>
+      <c r="C24" t="s" s="68">
+        <v>299</v>
+      </c>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" t="s" s="68">
+        <v>300</v>
+      </c>
+      <c r="G24" t="s" s="68">
+        <v>301</v>
+      </c>
+      <c r="H24" s="67"/>
     </row>
     <row r="25" ht="19" customHeight="1">
-      <c r="A25" t="s" s="118">
-        <v>298</v>
-      </c>
-      <c r="B25" s="115"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="119"/>
+      <c r="A25" t="s" s="115">
+        <v>302</v>
+      </c>
+      <c r="B25" s="112"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="112"/>
+      <c r="H25" s="116"/>
     </row>
     <row r="26" ht="54.75" customHeight="1">
-      <c r="A26" t="s" s="121">
-        <v>299</v>
-      </c>
-      <c r="B26" s="122"/>
-      <c r="C26" t="s" s="123">
-        <v>300</v>
-      </c>
-      <c r="D26" s="108"/>
-      <c r="E26" t="s" s="124">
-        <v>301</v>
-      </c>
-      <c r="F26" t="s" s="124">
-        <v>183</v>
-      </c>
-      <c r="G26" t="s" s="124">
+      <c r="A26" t="s" s="118">
+        <v>303</v>
+      </c>
+      <c r="B26" s="119"/>
+      <c r="C26" t="s" s="120">
+        <v>304</v>
+      </c>
+      <c r="D26" s="105"/>
+      <c r="E26" t="s" s="121">
+        <v>305</v>
+      </c>
+      <c r="F26" t="s" s="121">
+        <v>187</v>
+      </c>
+      <c r="G26" t="s" s="121">
         <v>40</v>
       </c>
-      <c r="H26" s="125">
+      <c r="H26" s="122">
         <v>38555</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
     <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="G22:H22"/>
     <mergeCell ref="A23:B23"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="G18:H18"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="E17:F17"/>
@@ -3811,7 +3815,6 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A15:H15"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="D10:E10"/>
@@ -3836,13 +3839,13 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="G24:H24"/>
     <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -3860,20 +3863,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.71429" defaultRowHeight="13.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.1562" style="126" customWidth="1"/>
-    <col min="2" max="2" width="10" style="126" customWidth="1"/>
-    <col min="3" max="3" width="9" style="126" customWidth="1"/>
-    <col min="4" max="4" width="9" style="126" customWidth="1"/>
-    <col min="5" max="5" width="11.1562" style="126" customWidth="1"/>
-    <col min="6" max="6" width="11.1562" style="126" customWidth="1"/>
-    <col min="7" max="7" width="9" style="126" customWidth="1"/>
-    <col min="8" max="8" width="11.1562" style="126" customWidth="1"/>
-    <col min="9" max="256" width="9.73438" style="126" customWidth="1"/>
+    <col min="1" max="1" width="10.1562" style="123" customWidth="1"/>
+    <col min="2" max="2" width="10" style="123" customWidth="1"/>
+    <col min="3" max="3" width="9" style="123" customWidth="1"/>
+    <col min="4" max="4" width="9" style="123" customWidth="1"/>
+    <col min="5" max="5" width="11.1562" style="123" customWidth="1"/>
+    <col min="6" max="6" width="11.1562" style="123" customWidth="1"/>
+    <col min="7" max="7" width="9" style="123" customWidth="1"/>
+    <col min="8" max="8" width="11.1562" style="123" customWidth="1"/>
+    <col min="9" max="256" width="9.73438" style="123" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.5" customHeight="1">
       <c r="A1" t="s" s="13">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B1" s="63"/>
       <c r="C1" s="63"/>
@@ -3881,7 +3884,7 @@
       <c r="E1" s="63"/>
       <c r="F1" s="63"/>
       <c r="G1" s="63"/>
-      <c r="H1" s="65"/>
+      <c r="H1" s="64"/>
     </row>
     <row r="2" ht="17" customHeight="1">
       <c r="A2" t="s" s="16">
@@ -3901,7 +3904,7 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" t="s" s="21">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" t="s" s="21">
@@ -3909,7 +3912,7 @@
       </c>
       <c r="F3" s="20"/>
       <c r="G3" t="s" s="21">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H3" s="22"/>
     </row>
@@ -3919,7 +3922,7 @@
       </c>
       <c r="B4" s="20"/>
       <c r="C4" t="s" s="21">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" t="s" s="21">
@@ -3927,7 +3930,7 @@
       </c>
       <c r="F4" s="20"/>
       <c r="G4" t="s" s="21">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H4" s="22"/>
     </row>
@@ -3937,7 +3940,7 @@
       </c>
       <c r="B5" s="20"/>
       <c r="C5" t="s" s="21">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" t="s" s="21">
@@ -3950,318 +3953,320 @@
       <c r="H5" s="22"/>
     </row>
     <row r="6" ht="19" customHeight="1">
-      <c r="A6" t="s" s="118">
-        <v>303</v>
-      </c>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="119"/>
+      <c r="A6" t="s" s="115">
+        <v>307</v>
+      </c>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="116"/>
     </row>
     <row r="7" ht="19" customHeight="1">
-      <c r="A7" t="s" s="72">
-        <v>304</v>
-      </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="76"/>
+      <c r="A7" t="s" s="70">
+        <v>308</v>
+      </c>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="74"/>
     </row>
     <row r="8" ht="19" customHeight="1">
-      <c r="A8" t="s" s="67">
-        <v>209</v>
-      </c>
-      <c r="B8" s="68">
+      <c r="A8" t="s" s="65">
+        <v>213</v>
+      </c>
+      <c r="B8" s="66">
         <v>38541</v>
       </c>
-      <c r="C8" t="s" s="70">
-        <v>305</v>
-      </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68">
+      <c r="C8" t="s" s="68">
+        <v>309</v>
+      </c>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66">
         <v>38559</v>
       </c>
-      <c r="F8" t="s" s="70">
-        <v>306</v>
-      </c>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69">
+      <c r="F8" t="s" s="68">
+        <v>310</v>
+      </c>
+      <c r="G8" s="66"/>
+      <c r="H8" s="67">
         <v>38560</v>
       </c>
     </row>
     <row r="9" ht="19" customHeight="1">
-      <c r="A9" t="s" s="72">
-        <v>307</v>
-      </c>
-      <c r="B9" s="106"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="76"/>
+      <c r="A9" t="s" s="70">
+        <v>311</v>
+      </c>
+      <c r="B9" s="103"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="74"/>
     </row>
     <row r="10" ht="19" customHeight="1">
-      <c r="A10" t="s" s="72">
-        <v>308</v>
-      </c>
-      <c r="B10" s="106"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="76"/>
+      <c r="A10" t="s" s="70">
+        <v>312</v>
+      </c>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="74"/>
     </row>
     <row r="11" ht="19" customHeight="1">
-      <c r="A11" t="s" s="72">
-        <v>309</v>
-      </c>
-      <c r="B11" s="106"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="76"/>
+      <c r="A11" t="s" s="70">
+        <v>313</v>
+      </c>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="74"/>
     </row>
     <row r="12" ht="19" customHeight="1">
-      <c r="A12" t="s" s="67">
-        <v>310</v>
-      </c>
-      <c r="B12" s="68"/>
-      <c r="C12" t="s" s="70">
-        <v>311</v>
-      </c>
-      <c r="D12" s="68"/>
-      <c r="E12" t="s" s="70">
-        <v>312</v>
-      </c>
-      <c r="F12" s="68"/>
-      <c r="G12" t="s" s="70">
-        <v>313</v>
-      </c>
-      <c r="H12" s="69"/>
+      <c r="A12" t="s" s="65">
+        <v>314</v>
+      </c>
+      <c r="B12" s="66"/>
+      <c r="C12" t="s" s="68">
+        <v>315</v>
+      </c>
+      <c r="D12" s="66"/>
+      <c r="E12" t="s" s="68">
+        <v>316</v>
+      </c>
+      <c r="F12" s="66"/>
+      <c r="G12" t="s" s="68">
+        <v>317</v>
+      </c>
+      <c r="H12" s="67"/>
     </row>
     <row r="13" ht="19" customHeight="1">
-      <c r="A13" t="s" s="72">
-        <v>314</v>
-      </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="76"/>
+      <c r="A13" t="s" s="70">
+        <v>318</v>
+      </c>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="74"/>
     </row>
     <row r="14" ht="19" customHeight="1">
-      <c r="A14" t="s" s="72">
-        <v>315</v>
-      </c>
-      <c r="B14" s="106"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="76"/>
+      <c r="A14" t="s" s="70">
+        <v>319</v>
+      </c>
+      <c r="B14" s="103"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="74"/>
     </row>
     <row r="15" ht="19" customHeight="1">
-      <c r="A15" t="s" s="72">
-        <v>316</v>
-      </c>
-      <c r="B15" s="106"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="76"/>
+      <c r="A15" t="s" s="70">
+        <v>320</v>
+      </c>
+      <c r="B15" s="103"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="74"/>
     </row>
     <row r="16" ht="19" customHeight="1">
-      <c r="A16" t="s" s="72">
-        <v>317</v>
-      </c>
-      <c r="B16" s="106"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="76"/>
+      <c r="A16" t="s" s="70">
+        <v>321</v>
+      </c>
+      <c r="B16" s="103"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="74"/>
     </row>
     <row r="17" ht="40.5" customHeight="1">
-      <c r="A17" t="s" s="72">
-        <v>318</v>
-      </c>
-      <c r="B17" s="106"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="76"/>
+      <c r="A17" t="s" s="70">
+        <v>322</v>
+      </c>
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="74"/>
     </row>
     <row r="18" ht="19" customHeight="1">
-      <c r="A18" t="s" s="72">
-        <v>319</v>
-      </c>
-      <c r="B18" s="106"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="76"/>
+      <c r="A18" t="s" s="70">
+        <v>323</v>
+      </c>
+      <c r="B18" s="103"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="74"/>
     </row>
     <row r="19" ht="30.75" customHeight="1">
-      <c r="A19" t="s" s="72">
-        <v>320</v>
-      </c>
-      <c r="B19" s="106"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="76"/>
+      <c r="A19" t="s" s="70">
+        <v>324</v>
+      </c>
+      <c r="B19" s="103"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="74"/>
     </row>
     <row r="20" ht="19" customHeight="1">
-      <c r="A20" t="s" s="72">
-        <v>321</v>
-      </c>
-      <c r="B20" s="106"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="76"/>
+      <c r="A20" t="s" s="70">
+        <v>325</v>
+      </c>
+      <c r="B20" s="103"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="74"/>
     </row>
     <row r="21" ht="19" customHeight="1">
-      <c r="A21" t="s" s="72">
-        <v>322</v>
-      </c>
-      <c r="B21" s="106"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="76"/>
+      <c r="A21" t="s" s="70">
+        <v>326</v>
+      </c>
+      <c r="B21" s="103"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="74"/>
     </row>
     <row r="22" ht="19" customHeight="1">
-      <c r="A22" t="s" s="72">
-        <v>323</v>
-      </c>
-      <c r="B22" s="106"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="76"/>
+      <c r="A22" t="s" s="70">
+        <v>327</v>
+      </c>
+      <c r="B22" s="103"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="74"/>
     </row>
     <row r="23" ht="19" customHeight="1">
-      <c r="A23" t="s" s="72">
-        <v>324</v>
-      </c>
-      <c r="B23" s="106"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="76"/>
+      <c r="A23" t="s" s="70">
+        <v>328</v>
+      </c>
+      <c r="B23" s="103"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="74"/>
     </row>
     <row r="24" ht="19" customHeight="1">
-      <c r="A24" t="s" s="118">
-        <v>325</v>
-      </c>
-      <c r="B24" s="115"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="119"/>
+      <c r="A24" t="s" s="115">
+        <v>329</v>
+      </c>
+      <c r="B24" s="112"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="112"/>
+      <c r="H24" s="116"/>
     </row>
     <row r="25" ht="140.25" customHeight="1">
-      <c r="A25" t="s" s="72">
-        <v>326</v>
-      </c>
-      <c r="B25" s="106"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="76"/>
+      <c r="A25" t="s" s="70">
+        <v>330</v>
+      </c>
+      <c r="B25" s="103"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="74"/>
     </row>
     <row r="26" ht="19" customHeight="1">
-      <c r="A26" t="s" s="67">
+      <c r="A26" t="s" s="65">
         <v>39</v>
       </c>
-      <c r="B26" s="68"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" t="s" s="70">
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" t="s" s="68">
         <v>40</v>
       </c>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="69"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="67"/>
     </row>
     <row r="27" ht="19" customHeight="1">
-      <c r="A27" t="s" s="67">
-        <v>327</v>
-      </c>
-      <c r="B27" s="68"/>
-      <c r="C27" t="s" s="70">
-        <v>183</v>
-      </c>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68">
+      <c r="A27" t="s" s="65">
+        <v>331</v>
+      </c>
+      <c r="B27" s="66"/>
+      <c r="C27" t="s" s="68">
+        <v>187</v>
+      </c>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66">
         <v>38560</v>
       </c>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="69"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="67"/>
     </row>
     <row r="28" ht="19.5" customHeight="1">
-      <c r="A28" t="s" s="121">
+      <c r="A28" t="s" s="118">
         <v>22</v>
       </c>
-      <c r="B28" s="122"/>
-      <c r="C28" t="s" s="124">
-        <v>207</v>
-      </c>
-      <c r="D28" s="122"/>
-      <c r="E28" s="122">
+      <c r="B28" s="119"/>
+      <c r="C28" t="s" s="121">
+        <v>211</v>
+      </c>
+      <c r="D28" s="119"/>
+      <c r="E28" s="119">
         <v>38560</v>
       </c>
-      <c r="F28" s="122"/>
-      <c r="G28" s="122"/>
-      <c r="H28" s="125"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="46">
     <mergeCell ref="E28:H28"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A22:H22"/>
     <mergeCell ref="E27:H27"/>
     <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A24:H24"/>
     <mergeCell ref="E26:H26"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A24:H24"/>
     <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A22:H22"/>
     <mergeCell ref="A18:H18"/>
     <mergeCell ref="A17:H17"/>
     <mergeCell ref="A15:H15"/>
@@ -4275,8 +4280,6 @@
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="E5:F5"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A28:B28"/>
@@ -4294,11 +4297,11 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -4556,8 +4559,8 @@
   </sheetData>
   <mergeCells count="21">
     <mergeCell ref="A14:B14"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C5:D5"/>
@@ -4569,13 +4572,13 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="D14:H14"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:H2"/>
     <mergeCell ref="D13:H13"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -4913,19 +4916,21 @@
   </sheetData>
   <mergeCells count="42">
     <mergeCell ref="G21:H21"/>
+    <mergeCell ref="E18:F18"/>
     <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="E5:F5"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C18:D18"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A17:H17"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A14:H14"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="A8:H8"/>
@@ -4933,8 +4938,6 @@
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="E5:F5"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A5:B5"/>
@@ -4949,11 +4952,11 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -4965,7 +4968,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -5370,7 +5373,9 @@
       <c r="J13" t="s" s="21">
         <v>74</v>
       </c>
-      <c r="K13" s="21"/>
+      <c r="K13" t="s" s="21">
+        <v>80</v>
+      </c>
       <c r="L13" t="s" s="56">
         <v>75</v>
       </c>
@@ -5398,9 +5403,15 @@
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="56"/>
+      <c r="J14" t="s" s="21">
+        <v>74</v>
+      </c>
+      <c r="K14" t="s" s="21">
+        <v>80</v>
+      </c>
+      <c r="L14" t="s" s="56">
+        <v>75</v>
+      </c>
       <c r="M14" s="57"/>
       <c r="N14" s="58"/>
       <c r="O14" s="4"/>
@@ -5430,7 +5441,9 @@
       <c r="J15" t="s" s="21">
         <v>74</v>
       </c>
-      <c r="K15" s="21"/>
+      <c r="K15" t="s" s="21">
+        <v>80</v>
+      </c>
       <c r="L15" t="s" s="56">
         <v>75</v>
       </c>
@@ -5458,9 +5471,15 @@
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="56"/>
+      <c r="J16" t="s" s="21">
+        <v>74</v>
+      </c>
+      <c r="K16" t="s" s="21">
+        <v>80</v>
+      </c>
+      <c r="L16" t="s" s="56">
+        <v>75</v>
+      </c>
       <c r="M16" s="57"/>
       <c r="N16" s="58"/>
       <c r="O16" s="4"/>
@@ -5485,9 +5504,15 @@
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="56"/>
+      <c r="J17" t="s" s="21">
+        <v>74</v>
+      </c>
+      <c r="K17" t="s" s="21">
+        <v>80</v>
+      </c>
+      <c r="L17" t="s" s="56">
+        <v>75</v>
+      </c>
       <c r="M17" s="57"/>
       <c r="N17" s="58"/>
       <c r="O17" s="4"/>
@@ -5512,9 +5537,15 @@
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="56"/>
+      <c r="J18" t="s" s="21">
+        <v>74</v>
+      </c>
+      <c r="K18" t="s" s="21">
+        <v>80</v>
+      </c>
+      <c r="L18" t="s" s="56">
+        <v>75</v>
+      </c>
       <c r="M18" s="57"/>
       <c r="N18" s="58"/>
       <c r="O18" s="4"/>
@@ -5539,9 +5570,15 @@
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="56"/>
+      <c r="J19" t="s" s="21">
+        <v>74</v>
+      </c>
+      <c r="K19" t="s" s="21">
+        <v>80</v>
+      </c>
+      <c r="L19" t="s" s="56">
+        <v>75</v>
+      </c>
       <c r="M19" s="57"/>
       <c r="N19" s="58"/>
       <c r="O19" s="4"/>
@@ -5566,9 +5603,15 @@
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="56"/>
+      <c r="J20" t="s" s="21">
+        <v>74</v>
+      </c>
+      <c r="K20" t="s" s="21">
+        <v>80</v>
+      </c>
+      <c r="L20" t="s" s="56">
+        <v>75</v>
+      </c>
       <c r="M20" s="57"/>
       <c r="N20" s="58"/>
       <c r="O20" s="4"/>
@@ -5593,9 +5636,15 @@
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="56"/>
+      <c r="J21" t="s" s="21">
+        <v>74</v>
+      </c>
+      <c r="K21" t="s" s="21">
+        <v>80</v>
+      </c>
+      <c r="L21" t="s" s="56">
+        <v>75</v>
+      </c>
       <c r="M21" s="57"/>
       <c r="N21" s="58"/>
       <c r="O21" s="4"/>
@@ -5620,9 +5669,15 @@
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="56"/>
+      <c r="J22" t="s" s="21">
+        <v>74</v>
+      </c>
+      <c r="K22" t="s" s="21">
+        <v>80</v>
+      </c>
+      <c r="L22" t="s" s="56">
+        <v>75</v>
+      </c>
       <c r="M22" s="57"/>
       <c r="N22" s="58"/>
       <c r="O22" s="4"/>
@@ -5647,9 +5702,15 @@
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="56"/>
+      <c r="J23" t="s" s="21">
+        <v>74</v>
+      </c>
+      <c r="K23" t="s" s="21">
+        <v>80</v>
+      </c>
+      <c r="L23" t="s" s="56">
+        <v>75</v>
+      </c>
       <c r="M23" s="57"/>
       <c r="N23" s="58"/>
       <c r="O23" s="4"/>
@@ -5657,18 +5718,18 @@
       <c r="Q23" s="4"/>
     </row>
     <row r="24" ht="21.75" customHeight="1">
-      <c r="A24" s="54">
-        <v>3.2</v>
+      <c r="A24" t="s" s="19">
+        <v>107</v>
       </c>
       <c r="B24" s="49"/>
       <c r="C24" t="s" s="21">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D24" t="s" s="21">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E24" s="20">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="F24" s="20">
         <v>1</v>
@@ -5677,10 +5738,10 @@
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
       <c r="J24" t="s" s="21">
+        <v>74</v>
+      </c>
+      <c r="K24" t="s" s="21">
         <v>80</v>
-      </c>
-      <c r="K24" t="s" s="21">
-        <v>74</v>
       </c>
       <c r="L24" t="s" s="56">
         <v>75</v>
@@ -5693,17 +5754,17 @@
     </row>
     <row r="25" ht="21.75" customHeight="1">
       <c r="A25" s="54">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="B25" s="49"/>
       <c r="C25" t="s" s="21">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D25" t="s" s="21">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E25" s="20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F25" s="20">
         <v>1</v>
@@ -5727,8 +5788,8 @@
       <c r="Q25" s="4"/>
     </row>
     <row r="26" ht="21.75" customHeight="1">
-      <c r="A26" t="s" s="19">
-        <v>111</v>
+      <c r="A26" s="54">
+        <v>3.3</v>
       </c>
       <c r="B26" s="49"/>
       <c r="C26" t="s" s="21">
@@ -5738,16 +5799,14 @@
         <v>113</v>
       </c>
       <c r="E26" s="20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F26" s="20">
         <v>1</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
-      <c r="I26" s="20">
-        <v>1</v>
-      </c>
+      <c r="I26" s="20"/>
       <c r="J26" t="s" s="21">
         <v>80</v>
       </c>
@@ -5768,12 +5827,14 @@
         <v>114</v>
       </c>
       <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
+      <c r="C27" t="s" s="21">
+        <v>115</v>
+      </c>
       <c r="D27" t="s" s="21">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E27" s="20">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F27" s="20">
         <v>1</v>
@@ -5798,15 +5859,15 @@
     </row>
     <row r="28" ht="21.75" customHeight="1">
       <c r="A28" t="s" s="19">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B28" s="49"/>
       <c r="C28" s="49"/>
       <c r="D28" t="s" s="21">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E28" s="20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F28" s="20">
         <v>1</v>
@@ -5831,12 +5892,12 @@
     </row>
     <row r="29" ht="21.75" customHeight="1">
       <c r="A29" t="s" s="19">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B29" s="49"/>
       <c r="C29" s="49"/>
       <c r="D29" t="s" s="21">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E29" s="20">
         <v>0.5</v>
@@ -5864,26 +5925,22 @@
     </row>
     <row r="30" ht="21.75" customHeight="1">
       <c r="A30" t="s" s="19">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B30" s="49"/>
-      <c r="C30" t="s" s="21">
-        <v>121</v>
-      </c>
+      <c r="C30" s="49"/>
       <c r="D30" t="s" s="21">
         <v>122</v>
       </c>
       <c r="E30" s="20">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F30" s="20">
         <v>1</v>
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
-      <c r="I30" s="20">
-        <v>1</v>
-      </c>
+      <c r="I30" s="20"/>
       <c r="J30" t="s" s="21">
         <v>80</v>
       </c>
@@ -5904,9 +5961,11 @@
         <v>123</v>
       </c>
       <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
+      <c r="C31" t="s" s="21">
+        <v>124</v>
+      </c>
       <c r="D31" t="s" s="21">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E31" s="20">
         <v>0.25</v>
@@ -5934,26 +5993,22 @@
     </row>
     <row r="32" ht="21.75" customHeight="1">
       <c r="A32" t="s" s="19">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B32" s="49"/>
-      <c r="C32" t="s" s="21">
-        <v>126</v>
-      </c>
+      <c r="C32" s="49"/>
       <c r="D32" t="s" s="21">
         <v>127</v>
       </c>
       <c r="E32" s="20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F32" s="20">
         <v>1</v>
       </c>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
-      <c r="I32" s="20">
-        <v>1</v>
-      </c>
+      <c r="I32" s="20"/>
       <c r="J32" t="s" s="21">
         <v>80</v>
       </c>
@@ -5974,21 +6029,21 @@
         <v>128</v>
       </c>
       <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
+      <c r="C33" t="s" s="21">
+        <v>129</v>
+      </c>
       <c r="D33" t="s" s="21">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E33" s="20">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F33" s="20">
         <v>1</v>
       </c>
       <c r="G33" s="20"/>
       <c r="H33" s="20"/>
-      <c r="I33" s="20">
-        <v>1</v>
-      </c>
+      <c r="I33" s="20"/>
       <c r="J33" t="s" s="21">
         <v>80</v>
       </c>
@@ -6006,17 +6061,15 @@
     </row>
     <row r="34" ht="21.75" customHeight="1">
       <c r="A34" t="s" s="19">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B34" s="49"/>
-      <c r="C34" t="s" s="21">
-        <v>131</v>
-      </c>
+      <c r="C34" s="49"/>
       <c r="D34" t="s" s="21">
         <v>132</v>
       </c>
       <c r="E34" s="20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F34" s="20">
         <v>1</v>
@@ -6044,9 +6097,11 @@
         <v>133</v>
       </c>
       <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
+      <c r="C35" t="s" s="21">
+        <v>134</v>
+      </c>
       <c r="D35" t="s" s="21">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E35" s="20">
         <v>0.5</v>
@@ -6074,12 +6129,12 @@
     </row>
     <row r="36" ht="21.75" customHeight="1">
       <c r="A36" t="s" s="19">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B36" s="49"/>
       <c r="C36" s="49"/>
       <c r="D36" t="s" s="21">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E36" s="20">
         <v>0.5</v>
@@ -6107,15 +6162,15 @@
     </row>
     <row r="37" ht="21.75" customHeight="1">
       <c r="A37" t="s" s="19">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B37" s="49"/>
       <c r="C37" s="49"/>
       <c r="D37" t="s" s="21">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E37" s="20">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F37" s="20">
         <v>1</v>
@@ -6139,32 +6194,28 @@
       <c r="Q37" s="4"/>
     </row>
     <row r="38" ht="21.75" customHeight="1">
-      <c r="A38" s="54">
-        <v>4.2</v>
-      </c>
-      <c r="B38" t="s" s="21">
-        <v>139</v>
-      </c>
-      <c r="C38" t="s" s="21">
+      <c r="A38" t="s" s="19">
         <v>140</v>
       </c>
-      <c r="D38" s="49"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" t="s" s="21">
+        <v>141</v>
+      </c>
       <c r="E38" s="20">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F38" s="20">
         <v>1</v>
       </c>
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
-      <c r="I38" s="20">
-        <v>1</v>
-      </c>
+      <c r="I38" s="20"/>
       <c r="J38" t="s" s="21">
         <v>80</v>
       </c>
       <c r="K38" t="s" s="21">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L38" t="s" s="56">
         <v>75</v>
@@ -6177,11 +6228,13 @@
     </row>
     <row r="39" ht="21.75" customHeight="1">
       <c r="A39" s="54">
-        <v>4.3</v>
-      </c>
-      <c r="B39" s="20"/>
+        <v>4.2</v>
+      </c>
+      <c r="B39" t="s" s="21">
+        <v>142</v>
+      </c>
       <c r="C39" t="s" s="21">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D39" s="49"/>
       <c r="E39" s="20">
@@ -6192,9 +6245,7 @@
       </c>
       <c r="G39" s="20"/>
       <c r="H39" s="20"/>
-      <c r="I39" s="20">
-        <v>1</v>
-      </c>
+      <c r="I39" s="20"/>
       <c r="J39" t="s" s="21">
         <v>80</v>
       </c>
@@ -6212,24 +6263,22 @@
     </row>
     <row r="40" ht="21.75" customHeight="1">
       <c r="A40" s="54">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" t="s" s="21">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D40" s="49"/>
       <c r="E40" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" s="20">
         <v>1</v>
       </c>
       <c r="G40" s="20"/>
       <c r="H40" s="20"/>
-      <c r="I40" s="20">
-        <v>1</v>
-      </c>
+      <c r="I40" s="20"/>
       <c r="J40" t="s" s="21">
         <v>80</v>
       </c>
@@ -6247,31 +6296,27 @@
     </row>
     <row r="41" ht="21.75" customHeight="1">
       <c r="A41" s="54">
-        <v>5.1</v>
-      </c>
-      <c r="B41" t="s" s="21">
-        <v>143</v>
-      </c>
+        <v>4.4</v>
+      </c>
+      <c r="B41" s="20"/>
       <c r="C41" t="s" s="21">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D41" s="49"/>
       <c r="E41" s="20">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="F41" s="20">
         <v>1</v>
       </c>
       <c r="G41" s="20"/>
       <c r="H41" s="20"/>
-      <c r="I41" s="20">
-        <v>1</v>
-      </c>
+      <c r="I41" s="20"/>
       <c r="J41" t="s" s="21">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K41" t="s" s="21">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="L41" t="s" s="56">
         <v>75</v>
@@ -6284,11 +6329,13 @@
     </row>
     <row r="42" ht="21.75" customHeight="1">
       <c r="A42" s="54">
-        <v>5.2</v>
-      </c>
-      <c r="B42" s="20"/>
+        <v>5.1</v>
+      </c>
+      <c r="B42" t="s" s="21">
+        <v>146</v>
+      </c>
       <c r="C42" t="s" s="21">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D42" s="49"/>
       <c r="E42" s="20">
@@ -6299,9 +6346,7 @@
       </c>
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
-      <c r="I42" s="20">
-        <v>1</v>
-      </c>
+      <c r="I42" s="20"/>
       <c r="J42" t="s" s="21">
         <v>74</v>
       </c>
@@ -6319,11 +6364,11 @@
     </row>
     <row r="43" ht="21.75" customHeight="1">
       <c r="A43" s="54">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" t="s" s="21">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D43" s="49"/>
       <c r="E43" s="20">
@@ -6334,9 +6379,7 @@
       </c>
       <c r="G43" s="20"/>
       <c r="H43" s="20"/>
-      <c r="I43" s="20">
-        <v>1</v>
-      </c>
+      <c r="I43" s="20"/>
       <c r="J43" t="s" s="21">
         <v>74</v>
       </c>
@@ -6346,52 +6389,85 @@
       <c r="L43" t="s" s="56">
         <v>75</v>
       </c>
-      <c r="M43" s="60"/>
-      <c r="N43" s="61"/>
+      <c r="M43" s="57"/>
+      <c r="N43" s="58"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
     </row>
+    <row r="44" ht="21.75" customHeight="1">
+      <c r="A44" s="54">
+        <v>5.3</v>
+      </c>
+      <c r="B44" s="20"/>
+      <c r="C44" t="s" s="21">
+        <v>149</v>
+      </c>
+      <c r="D44" s="49"/>
+      <c r="E44" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="F44" s="20">
+        <v>1</v>
+      </c>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" t="s" s="21">
+        <v>74</v>
+      </c>
+      <c r="K44" t="s" s="21">
+        <v>74</v>
+      </c>
+      <c r="L44" t="s" s="56">
+        <v>75</v>
+      </c>
+      <c r="M44" s="60"/>
+      <c r="N44" s="61"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C26:C29"/>
     <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C27:C30"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C35:C38"/>
     <mergeCell ref="A6:Q6"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="O5:Q5"/>
     <mergeCell ref="B10:B12"/>
-    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="J5:N5"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B13:B38"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="J4:N4"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="B13:B37"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="C44:D44"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C31:C32"/>
     <mergeCell ref="J3:N3"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="F4:I4"/>
     <mergeCell ref="C39:D39"/>
-    <mergeCell ref="F4:I4"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="C38:D38"/>
     <mergeCell ref="C15:C23"/>
     <mergeCell ref="F3:I3"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="C43:D43"/>
     <mergeCell ref="F5:I5"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="A2:Q2"/>
   </mergeCells>
   <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -6432,7 +6508,7 @@
   <sheetData>
     <row r="1" ht="23.5" customHeight="1">
       <c r="A1" t="s" s="13">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B1" s="63"/>
       <c r="C1" s="63"/>
@@ -6447,10 +6523,10 @@
       <c r="L1" s="63"/>
       <c r="M1" s="63"/>
       <c r="N1" s="63"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
       <c r="Q1" s="63"/>
-      <c r="R1" s="65"/>
+      <c r="R1" s="64"/>
     </row>
     <row r="2" ht="21.75" customHeight="1">
       <c r="A2" t="s" s="16">
@@ -6469,8 +6545,8 @@
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
       <c r="Q2" s="17"/>
       <c r="R2" s="18"/>
     </row>
@@ -6511,7 +6587,7 @@
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
       <c r="F4" t="s" s="21">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
@@ -6560,7 +6636,7 @@
     </row>
     <row r="6" ht="21.75" customHeight="1">
       <c r="A6" t="s" s="16">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -6575,374 +6651,414 @@
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
       <c r="Q6" s="17"/>
       <c r="R6" s="18"/>
     </row>
     <row r="7" ht="19" customHeight="1">
-      <c r="A7" t="s" s="67">
-        <v>150</v>
-      </c>
-      <c r="B7" s="68">
+      <c r="A7" t="s" s="65">
+        <v>153</v>
+      </c>
+      <c r="B7" s="66">
         <v>1</v>
       </c>
       <c r="C7" s="49"/>
       <c r="D7" s="49"/>
-      <c r="E7" s="68">
+      <c r="E7" s="66">
         <v>2</v>
       </c>
       <c r="F7" s="49"/>
       <c r="G7" s="49"/>
       <c r="H7" s="49"/>
       <c r="I7" s="49"/>
-      <c r="J7" s="68">
+      <c r="J7" s="66">
         <v>3</v>
       </c>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="69"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="67"/>
     </row>
     <row r="8" ht="32.25" customHeight="1">
-      <c r="A8" t="s" s="67">
-        <v>151</v>
-      </c>
-      <c r="B8" t="s" s="70">
-        <v>152</v>
-      </c>
-      <c r="C8" t="s" s="70">
-        <v>153</v>
-      </c>
-      <c r="D8" t="s" s="70">
+      <c r="A8" t="s" s="65">
         <v>154</v>
       </c>
-      <c r="E8" t="s" s="70">
+      <c r="B8" t="s" s="68">
         <v>155</v>
       </c>
-      <c r="F8" t="s" s="70">
+      <c r="C8" t="s" s="68">
         <v>156</v>
       </c>
-      <c r="G8" t="s" s="70">
+      <c r="D8" t="s" s="68">
         <v>157</v>
       </c>
-      <c r="H8" t="s" s="70">
+      <c r="E8" t="s" s="68">
         <v>158</v>
       </c>
-      <c r="I8" t="s" s="70">
+      <c r="F8" t="s" s="68">
         <v>159</v>
       </c>
-      <c r="J8" t="s" s="70">
+      <c r="G8" t="s" s="68">
         <v>160</v>
       </c>
-      <c r="K8" t="s" s="70">
+      <c r="H8" t="s" s="68">
         <v>161</v>
       </c>
-      <c r="L8" t="s" s="70">
+      <c r="I8" t="s" s="68">
         <v>162</v>
       </c>
-      <c r="M8" t="s" s="70">
+      <c r="J8" t="s" s="68">
         <v>163</v>
       </c>
-      <c r="N8" t="s" s="70">
+      <c r="K8" t="s" s="68">
         <v>164</v>
       </c>
-      <c r="O8" t="s" s="70">
+      <c r="L8" t="s" s="68">
         <v>165</v>
       </c>
-      <c r="P8" t="s" s="70">
+      <c r="M8" t="s" s="68">
         <v>166</v>
       </c>
-      <c r="Q8" t="s" s="70">
+      <c r="N8" t="s" s="68">
         <v>167</v>
       </c>
-      <c r="R8" t="s" s="71">
+      <c r="O8" t="s" s="68">
         <v>168</v>
       </c>
+      <c r="P8" t="s" s="68">
+        <v>169</v>
+      </c>
+      <c r="Q8" t="s" s="68">
+        <v>170</v>
+      </c>
+      <c r="R8" t="s" s="69">
+        <v>171</v>
+      </c>
     </row>
     <row r="9" ht="21.75" customHeight="1">
-      <c r="A9" t="s" s="72">
-        <v>169</v>
-      </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" t="s" s="70">
+      <c r="A9" t="s" s="70">
+        <v>172</v>
+      </c>
+      <c r="B9" t="s" s="71">
+        <v>173</v>
+      </c>
+      <c r="C9" t="s" s="71">
+        <v>173</v>
+      </c>
+      <c r="D9" t="s" s="71">
+        <v>173</v>
+      </c>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" t="s" s="68">
         <v>21</v>
       </c>
-      <c r="R9" t="s" s="74">
-        <v>170</v>
+      <c r="R9" t="s" s="72">
+        <v>174</v>
       </c>
     </row>
     <row r="10" ht="21.75" customHeight="1">
-      <c r="A10" t="s" s="72">
-        <v>171</v>
+      <c r="A10" t="s" s="70">
+        <v>175</v>
       </c>
       <c r="B10" s="49"/>
       <c r="C10" s="49"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" t="s" s="70">
+      <c r="D10" s="66"/>
+      <c r="E10" t="s" s="71">
+        <v>173</v>
+      </c>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" t="s" s="68">
         <v>19</v>
       </c>
-      <c r="R10" s="75"/>
+      <c r="R10" s="73"/>
     </row>
     <row r="11" ht="21.75" customHeight="1">
-      <c r="A11" t="s" s="72">
-        <v>172</v>
-      </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" t="s" s="70">
+      <c r="A11" t="s" s="70">
+        <v>176</v>
+      </c>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" t="s" s="71">
+        <v>173</v>
+      </c>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" t="s" s="68">
         <v>19</v>
       </c>
-      <c r="R11" s="76"/>
+      <c r="R11" s="74"/>
     </row>
     <row r="12" ht="21.75" customHeight="1">
-      <c r="A12" t="s" s="72">
+      <c r="A12" t="s" s="70">
+        <v>177</v>
+      </c>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" t="s" s="71">
         <v>173</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
+      <c r="G12" t="s" s="71">
+        <v>173</v>
+      </c>
       <c r="H12" s="49"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" t="s" s="70">
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" t="s" s="68">
         <v>19</v>
       </c>
-      <c r="R12" s="74"/>
+      <c r="R12" s="72"/>
     </row>
     <row r="13" ht="21.75" customHeight="1">
-      <c r="A13" t="s" s="72">
-        <v>174</v>
-      </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" t="s" s="70">
+      <c r="A13" t="s" s="70">
+        <v>178</v>
+      </c>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" t="s" s="71">
+        <v>173</v>
+      </c>
+      <c r="I13" t="s" s="71">
+        <v>173</v>
+      </c>
+      <c r="J13" s="75"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" t="s" s="68">
         <v>19</v>
       </c>
-      <c r="R13" s="74"/>
+      <c r="R13" s="72"/>
     </row>
     <row r="14" ht="21.75" customHeight="1">
-      <c r="A14" t="s" s="72">
-        <v>175</v>
-      </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" t="s" s="70">
+      <c r="A14" t="s" s="70">
+        <v>179</v>
+      </c>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" t="s" s="71">
+        <v>173</v>
+      </c>
+      <c r="I14" t="s" s="71">
+        <v>173</v>
+      </c>
+      <c r="J14" s="75"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" t="s" s="68">
         <v>19</v>
       </c>
-      <c r="R14" s="74"/>
+      <c r="R14" s="72"/>
     </row>
     <row r="15" ht="21.75" customHeight="1">
-      <c r="A15" t="s" s="72">
-        <v>176</v>
-      </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
+      <c r="A15" t="s" s="70">
+        <v>180</v>
+      </c>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" t="s" s="71">
+        <v>173</v>
+      </c>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
       <c r="H15" s="49"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" t="s" s="70">
+      <c r="I15" s="49"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" t="s" s="68">
         <v>19</v>
       </c>
-      <c r="R15" s="74"/>
+      <c r="R15" s="72"/>
     </row>
     <row r="16" ht="21.75" customHeight="1">
-      <c r="A16" t="s" s="72">
-        <v>177</v>
-      </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="68"/>
+      <c r="A16" t="s" s="70">
+        <v>181</v>
+      </c>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" t="s" s="76">
+        <v>173</v>
+      </c>
+      <c r="F16" t="s" s="76">
+        <v>173</v>
+      </c>
+      <c r="G16" s="66"/>
       <c r="H16" s="49"/>
       <c r="I16" s="49"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" t="s" s="70">
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" t="s" s="68">
         <v>38</v>
       </c>
-      <c r="R16" s="74"/>
+      <c r="R16" s="72"/>
     </row>
     <row r="17" ht="21.75" customHeight="1">
-      <c r="A17" t="s" s="72">
-        <v>178</v>
-      </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="79"/>
+      <c r="A17" t="s" s="70">
+        <v>182</v>
+      </c>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" t="s" s="76">
+        <v>173</v>
+      </c>
+      <c r="H17" t="s" s="76">
+        <v>173</v>
+      </c>
+      <c r="I17" t="s" s="76">
+        <v>173</v>
+      </c>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
       <c r="O17" s="49"/>
-      <c r="P17" s="77"/>
-      <c r="Q17" t="s" s="70">
+      <c r="P17" s="49"/>
+      <c r="Q17" t="s" s="68">
         <v>38</v>
       </c>
-      <c r="R17" s="74"/>
+      <c r="R17" s="72"/>
     </row>
     <row r="18" ht="21.75" customHeight="1">
-      <c r="A18" t="s" s="72">
-        <v>179</v>
-      </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="74"/>
+      <c r="A18" t="s" s="70">
+        <v>183</v>
+      </c>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" t="s" s="76">
+        <v>173</v>
+      </c>
+      <c r="I18" t="s" s="76">
+        <v>173</v>
+      </c>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" t="s" s="68">
+        <v>38</v>
+      </c>
+      <c r="R18" s="72"/>
     </row>
     <row r="19" ht="21.75" customHeight="1">
-      <c r="A19" s="72"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
+      <c r="A19" s="70"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
       <c r="H19" s="49"/>
       <c r="I19" s="49"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="74"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="72"/>
     </row>
     <row r="20" ht="21.75" customHeight="1">
-      <c r="A20" s="81"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="82"/>
-      <c r="O20" s="82"/>
-      <c r="P20" s="82"/>
-      <c r="Q20" s="82"/>
-      <c r="R20" s="83"/>
+      <c r="A20" s="78"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="79"/>
+      <c r="R20" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -6950,19 +7066,19 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A6:R6"/>
     <mergeCell ref="A5:E5"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
     <mergeCell ref="F5:K5"/>
-    <mergeCell ref="A2:R2"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:K3"/>
     <mergeCell ref="E7:I7"/>
     <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="Q3:R3"/>
     <mergeCell ref="Q4:R4"/>
   </mergeCells>
   <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6981,20 +7097,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.71429" defaultRowHeight="13.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.15625" style="84" customWidth="1"/>
-    <col min="2" max="2" width="17.2891" style="84" customWidth="1"/>
-    <col min="3" max="3" width="8" style="84" customWidth="1"/>
-    <col min="4" max="4" width="8" style="84" customWidth="1"/>
-    <col min="5" max="5" width="8" style="84" customWidth="1"/>
-    <col min="6" max="6" width="22.7344" style="84" customWidth="1"/>
-    <col min="7" max="7" width="6.28906" style="84" customWidth="1"/>
-    <col min="8" max="8" width="8.73438" style="84" customWidth="1"/>
-    <col min="9" max="256" width="9.73438" style="84" customWidth="1"/>
+    <col min="1" max="1" width="6.15625" style="81" customWidth="1"/>
+    <col min="2" max="2" width="17.2891" style="81" customWidth="1"/>
+    <col min="3" max="3" width="8" style="81" customWidth="1"/>
+    <col min="4" max="4" width="8" style="81" customWidth="1"/>
+    <col min="5" max="5" width="8" style="81" customWidth="1"/>
+    <col min="6" max="6" width="22.7344" style="81" customWidth="1"/>
+    <col min="7" max="7" width="6.28906" style="81" customWidth="1"/>
+    <col min="8" max="8" width="8.73438" style="81" customWidth="1"/>
+    <col min="9" max="256" width="9.73438" style="81" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
       <c r="A1" t="s" s="13">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B1" s="63"/>
       <c r="C1" s="63"/>
@@ -7002,7 +7118,7 @@
       <c r="E1" s="63"/>
       <c r="F1" s="63"/>
       <c r="G1" s="63"/>
-      <c r="H1" s="65"/>
+      <c r="H1" s="64"/>
     </row>
     <row r="2" ht="21.75" customHeight="1">
       <c r="A2" t="s" s="16">
@@ -7017,62 +7133,62 @@
       <c r="H2" s="18"/>
     </row>
     <row r="3" ht="21.75" customHeight="1">
-      <c r="A3" t="s" s="85">
+      <c r="A3" t="s" s="82">
         <v>15</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" t="s" s="87">
-        <v>181</v>
-      </c>
-      <c r="D3" s="86"/>
-      <c r="E3" t="s" s="87">
+      <c r="B3" s="83"/>
+      <c r="C3" t="s" s="84">
+        <v>185</v>
+      </c>
+      <c r="D3" s="83"/>
+      <c r="E3" t="s" s="84">
         <v>17</v>
       </c>
-      <c r="F3" s="86"/>
-      <c r="G3" t="s" s="87">
-        <v>182</v>
-      </c>
-      <c r="H3" s="88"/>
+      <c r="F3" s="83"/>
+      <c r="G3" t="s" s="84">
+        <v>186</v>
+      </c>
+      <c r="H3" s="85"/>
     </row>
     <row r="4" ht="21.75" customHeight="1">
-      <c r="A4" t="s" s="85">
+      <c r="A4" t="s" s="82">
         <v>18</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" t="s" s="87">
+      <c r="B4" s="83"/>
+      <c r="C4" t="s" s="84">
         <v>19</v>
       </c>
-      <c r="D4" s="86"/>
-      <c r="E4" t="s" s="87">
+      <c r="D4" s="83"/>
+      <c r="E4" t="s" s="84">
         <v>20</v>
       </c>
-      <c r="F4" s="86"/>
-      <c r="G4" t="s" s="87">
-        <v>183</v>
-      </c>
-      <c r="H4" s="88"/>
+      <c r="F4" s="83"/>
+      <c r="G4" t="s" s="84">
+        <v>187</v>
+      </c>
+      <c r="H4" s="85"/>
     </row>
     <row r="5" ht="21.75" customHeight="1">
-      <c r="A5" t="s" s="85">
+      <c r="A5" t="s" s="82">
         <v>22</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" t="s" s="87">
+      <c r="B5" s="83"/>
+      <c r="C5" t="s" s="84">
         <v>21</v>
       </c>
-      <c r="D5" s="86"/>
-      <c r="E5" t="s" s="87">
+      <c r="D5" s="83"/>
+      <c r="E5" t="s" s="84">
         <v>23</v>
       </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="89">
+      <c r="F5" s="83"/>
+      <c r="G5" s="86">
         <v>42558</v>
       </c>
-      <c r="H5" s="88"/>
+      <c r="H5" s="85"/>
     </row>
     <row r="6" ht="21.75" customHeight="1">
       <c r="A6" t="s" s="16">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -7084,7 +7200,7 @@
     </row>
     <row r="7" ht="21.75" customHeight="1">
       <c r="A7" t="s" s="27">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
@@ -7096,7 +7212,7 @@
     </row>
     <row r="8" ht="21.75" customHeight="1">
       <c r="A8" t="s" s="27">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
@@ -7111,25 +7227,25 @@
         <v>1</v>
       </c>
       <c r="B9" t="s" s="21">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C9" t="s" s="21">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D9" t="s" s="21">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E9" t="s" s="21">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F9" t="s" s="21">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G9" t="s" s="21">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H9" t="s" s="26">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" ht="35" customHeight="1">
@@ -7143,7 +7259,7 @@
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
       <c r="H10" t="s" s="26">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" ht="35" customHeight="1">
@@ -7157,7 +7273,7 @@
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" t="s" s="26">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" ht="35" customHeight="1">
@@ -7171,7 +7287,7 @@
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" t="s" s="26">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" ht="35" customHeight="1">
@@ -7185,11 +7301,11 @@
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
       <c r="H13" t="s" s="26">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" ht="35" customHeight="1">
-      <c r="A14" s="90">
+      <c r="A14" s="87">
         <v>5</v>
       </c>
       <c r="B14" s="33"/>
@@ -7198,17 +7314,17 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
-      <c r="H14" t="s" s="91">
-        <v>193</v>
+      <c r="H14" t="s" s="88">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
     <mergeCell ref="A8:H8"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A6:H6"/>
     <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E5:F5"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="G4:H4"/>
@@ -7218,9 +7334,9 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -7238,20 +7354,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.71429" defaultRowHeight="13.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.7344" style="92" customWidth="1"/>
-    <col min="2" max="2" width="10.7344" style="92" customWidth="1"/>
-    <col min="3" max="3" width="10.7344" style="92" customWidth="1"/>
-    <col min="4" max="4" width="10.7344" style="92" customWidth="1"/>
-    <col min="5" max="5" width="10.7344" style="92" customWidth="1"/>
-    <col min="6" max="6" width="10.7344" style="92" customWidth="1"/>
-    <col min="7" max="7" width="10.7344" style="92" customWidth="1"/>
-    <col min="8" max="8" width="10.7344" style="92" customWidth="1"/>
-    <col min="9" max="256" width="9.73438" style="92" customWidth="1"/>
+    <col min="1" max="1" width="10.7344" style="89" customWidth="1"/>
+    <col min="2" max="2" width="10.7344" style="89" customWidth="1"/>
+    <col min="3" max="3" width="10.7344" style="89" customWidth="1"/>
+    <col min="4" max="4" width="10.7344" style="89" customWidth="1"/>
+    <col min="5" max="5" width="10.7344" style="89" customWidth="1"/>
+    <col min="6" max="6" width="10.7344" style="89" customWidth="1"/>
+    <col min="7" max="7" width="10.7344" style="89" customWidth="1"/>
+    <col min="8" max="8" width="10.7344" style="89" customWidth="1"/>
+    <col min="9" max="256" width="9.73438" style="89" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
       <c r="A1" t="s" s="13">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -7279,7 +7395,7 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" t="s" s="21">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" t="s" s="21">
@@ -7287,7 +7403,7 @@
       </c>
       <c r="F3" s="20"/>
       <c r="G3" t="s" s="21">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H3" s="22"/>
     </row>
@@ -7305,7 +7421,7 @@
       </c>
       <c r="F4" s="20"/>
       <c r="G4" t="s" s="21">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H4" s="22"/>
     </row>
@@ -7328,35 +7444,35 @@
       <c r="H5" s="22"/>
     </row>
     <row r="6" ht="21.75" customHeight="1">
-      <c r="A6" t="s" s="93">
-        <v>195</v>
-      </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="95"/>
+      <c r="A6" t="s" s="90">
+        <v>199</v>
+      </c>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="92"/>
     </row>
     <row r="7" ht="21.75" customHeight="1">
       <c r="A7" t="s" s="19">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" t="s" s="21">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" t="s" s="21">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F7" t="s" s="21">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" t="s" s="26">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" ht="21.75" customHeight="1">
@@ -7404,30 +7520,30 @@
       <c r="H11" s="26"/>
     </row>
     <row r="12" ht="21.75" customHeight="1">
-      <c r="A12" t="s" s="96">
-        <v>200</v>
-      </c>
-      <c r="B12" s="97"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="100"/>
+      <c r="A12" t="s" s="93">
+        <v>204</v>
+      </c>
+      <c r="B12" s="94"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="F10:G10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A10:B10"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A9:B9"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A8:B8"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="G5:H5"/>
@@ -7445,11 +7561,11 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -7467,20 +7583,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.71429" defaultRowHeight="13.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12.7344" style="101" customWidth="1"/>
-    <col min="2" max="2" width="12.7344" style="101" customWidth="1"/>
-    <col min="3" max="3" width="12.7344" style="101" customWidth="1"/>
-    <col min="4" max="4" width="12.7344" style="101" customWidth="1"/>
-    <col min="5" max="5" width="12.7344" style="101" customWidth="1"/>
-    <col min="6" max="6" width="12.7344" style="101" customWidth="1"/>
-    <col min="7" max="7" width="12.7344" style="101" customWidth="1"/>
-    <col min="8" max="8" width="12.7344" style="101" customWidth="1"/>
-    <col min="9" max="256" width="9.73438" style="101" customWidth="1"/>
+    <col min="1" max="1" width="12.7344" style="98" customWidth="1"/>
+    <col min="2" max="2" width="12.7344" style="98" customWidth="1"/>
+    <col min="3" max="3" width="12.7344" style="98" customWidth="1"/>
+    <col min="4" max="4" width="12.7344" style="98" customWidth="1"/>
+    <col min="5" max="5" width="12.7344" style="98" customWidth="1"/>
+    <col min="6" max="6" width="12.7344" style="98" customWidth="1"/>
+    <col min="7" max="7" width="12.7344" style="98" customWidth="1"/>
+    <col min="8" max="8" width="12.7344" style="98" customWidth="1"/>
+    <col min="9" max="256" width="9.73438" style="98" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
       <c r="A1" t="s" s="13">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B1" s="63"/>
       <c r="C1" s="63"/>
@@ -7488,247 +7604,247 @@
       <c r="E1" s="63"/>
       <c r="F1" s="63"/>
       <c r="G1" s="63"/>
-      <c r="H1" s="65"/>
+      <c r="H1" s="64"/>
     </row>
     <row r="2" ht="21.75" customHeight="1">
-      <c r="A2" t="s" s="67">
-        <v>202</v>
-      </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="69"/>
+      <c r="A2" t="s" s="65">
+        <v>206</v>
+      </c>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="67"/>
     </row>
     <row r="3" ht="21.75" customHeight="1">
-      <c r="A3" t="s" s="102">
-        <v>203</v>
-      </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="104"/>
+      <c r="A3" t="s" s="99">
+        <v>207</v>
+      </c>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="101"/>
     </row>
     <row r="4" ht="21.75" customHeight="1">
-      <c r="A4" t="s" s="67">
-        <v>204</v>
-      </c>
-      <c r="B4" s="68"/>
-      <c r="C4" t="s" s="70">
-        <v>205</v>
-      </c>
-      <c r="D4" s="68"/>
-      <c r="E4" t="s" s="70">
-        <v>206</v>
-      </c>
-      <c r="F4" s="68"/>
-      <c r="G4" t="s" s="70">
-        <v>207</v>
-      </c>
-      <c r="H4" s="69"/>
+      <c r="A4" t="s" s="65">
+        <v>208</v>
+      </c>
+      <c r="B4" s="66"/>
+      <c r="C4" t="s" s="68">
+        <v>209</v>
+      </c>
+      <c r="D4" s="66"/>
+      <c r="E4" t="s" s="68">
+        <v>210</v>
+      </c>
+      <c r="F4" s="66"/>
+      <c r="G4" t="s" s="68">
+        <v>211</v>
+      </c>
+      <c r="H4" s="67"/>
     </row>
     <row r="5" ht="21.75" customHeight="1">
-      <c r="A5" t="s" s="67">
-        <v>208</v>
-      </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68">
+      <c r="A5" t="s" s="65">
+        <v>212</v>
+      </c>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66">
         <v>38549</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" t="s" s="70">
-        <v>209</v>
-      </c>
-      <c r="F5" s="68"/>
-      <c r="G5" s="105">
+      <c r="D5" s="66"/>
+      <c r="E5" t="s" s="68">
+        <v>213</v>
+      </c>
+      <c r="F5" s="66"/>
+      <c r="G5" s="102">
         <v>0.7083333333333333</v>
       </c>
-      <c r="H5" s="69"/>
+      <c r="H5" s="67"/>
     </row>
     <row r="6" ht="21.75" customHeight="1">
-      <c r="A6" t="s" s="67">
-        <v>210</v>
-      </c>
-      <c r="B6" s="68"/>
-      <c r="C6" t="s" s="70">
+      <c r="A6" t="s" s="65">
+        <v>214</v>
+      </c>
+      <c r="B6" s="66"/>
+      <c r="C6" t="s" s="68">
+        <v>215</v>
+      </c>
+      <c r="D6" s="66"/>
+      <c r="E6" t="s" s="68">
+        <v>216</v>
+      </c>
+      <c r="F6" s="66"/>
+      <c r="G6" t="s" s="68">
+        <v>217</v>
+      </c>
+      <c r="H6" s="67"/>
+    </row>
+    <row r="7" ht="21.75" customHeight="1">
+      <c r="A7" t="s" s="65">
+        <v>218</v>
+      </c>
+      <c r="B7" s="66"/>
+      <c r="C7" t="s" s="68">
+        <v>219</v>
+      </c>
+      <c r="D7" s="66"/>
+      <c r="E7" t="s" s="68">
+        <v>20</v>
+      </c>
+      <c r="F7" s="66"/>
+      <c r="G7" t="s" s="68">
         <v>211</v>
       </c>
-      <c r="D6" s="68"/>
-      <c r="E6" t="s" s="70">
-        <v>212</v>
-      </c>
-      <c r="F6" s="68"/>
-      <c r="G6" t="s" s="70">
-        <v>213</v>
-      </c>
-      <c r="H6" s="69"/>
-    </row>
-    <row r="7" ht="21.75" customHeight="1">
-      <c r="A7" t="s" s="67">
-        <v>214</v>
-      </c>
-      <c r="B7" s="68"/>
-      <c r="C7" t="s" s="70">
-        <v>215</v>
-      </c>
-      <c r="D7" s="68"/>
-      <c r="E7" t="s" s="70">
-        <v>20</v>
-      </c>
-      <c r="F7" s="68"/>
-      <c r="G7" t="s" s="70">
-        <v>207</v>
-      </c>
-      <c r="H7" s="69"/>
+      <c r="H7" s="67"/>
     </row>
     <row r="8" ht="21.75" customHeight="1">
-      <c r="A8" t="s" s="102">
-        <v>216</v>
-      </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="104"/>
+      <c r="A8" t="s" s="99">
+        <v>220</v>
+      </c>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="101"/>
     </row>
     <row r="9" ht="21.75" customHeight="1">
-      <c r="A9" t="s" s="72">
-        <v>217</v>
-      </c>
-      <c r="B9" s="106"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="76"/>
+      <c r="A9" t="s" s="70">
+        <v>221</v>
+      </c>
+      <c r="B9" s="103"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="74"/>
     </row>
     <row r="10" ht="21.75" customHeight="1">
-      <c r="A10" t="s" s="102">
-        <v>218</v>
-      </c>
-      <c r="B10" s="103"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="104"/>
+      <c r="A10" t="s" s="99">
+        <v>222</v>
+      </c>
+      <c r="B10" s="100"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="101"/>
     </row>
     <row r="11" ht="61.5" customHeight="1">
-      <c r="A11" t="s" s="72">
-        <v>219</v>
-      </c>
-      <c r="B11" s="106"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="76"/>
+      <c r="A11" t="s" s="70">
+        <v>223</v>
+      </c>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="74"/>
     </row>
     <row r="12" ht="21.75" customHeight="1">
-      <c r="A12" t="s" s="102">
-        <v>220</v>
-      </c>
-      <c r="B12" s="103"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="104"/>
+      <c r="A12" t="s" s="99">
+        <v>224</v>
+      </c>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="101"/>
     </row>
     <row r="13" ht="39.75" customHeight="1">
-      <c r="A13" t="s" s="72">
-        <v>221</v>
-      </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="76"/>
+      <c r="A13" t="s" s="70">
+        <v>225</v>
+      </c>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="74"/>
     </row>
     <row r="14" ht="21.75" customHeight="1">
-      <c r="A14" t="s" s="102">
-        <v>222</v>
-      </c>
-      <c r="B14" s="103"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="104"/>
+      <c r="A14" t="s" s="99">
+        <v>226</v>
+      </c>
+      <c r="B14" s="100"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="101"/>
     </row>
     <row r="15" ht="81.75" customHeight="1">
-      <c r="A15" t="s" s="72">
-        <v>223</v>
-      </c>
-      <c r="B15" s="106"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="76"/>
+      <c r="A15" t="s" s="70">
+        <v>227</v>
+      </c>
+      <c r="B15" s="103"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="74"/>
     </row>
     <row r="16" ht="21.75" customHeight="1">
-      <c r="A16" t="s" s="102">
-        <v>224</v>
-      </c>
-      <c r="B16" s="103"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="104"/>
+      <c r="A16" t="s" s="99">
+        <v>228</v>
+      </c>
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="101"/>
     </row>
     <row r="17" ht="21.75" customHeight="1">
-      <c r="A17" t="s" s="72">
-        <v>225</v>
-      </c>
-      <c r="B17" s="106"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="76"/>
+      <c r="A17" t="s" s="70">
+        <v>229</v>
+      </c>
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="74"/>
     </row>
     <row r="18" ht="21.75" customHeight="1">
-      <c r="A18" t="s" s="102">
-        <v>226</v>
-      </c>
-      <c r="B18" s="103"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="104"/>
+      <c r="A18" t="s" s="99">
+        <v>230</v>
+      </c>
+      <c r="B18" s="100"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="101"/>
     </row>
     <row r="19" ht="57" customHeight="1">
-      <c r="A19" t="s" s="107">
-        <v>227</v>
-      </c>
-      <c r="B19" s="108"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="109"/>
+      <c r="A19" t="s" s="104">
+        <v>231</v>
+      </c>
+      <c r="B19" s="105"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="31">
@@ -7739,8 +7855,8 @@
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A9:H9"/>
+    <mergeCell ref="G7:H7"/>
     <mergeCell ref="A8:H8"/>
-    <mergeCell ref="G7:H7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="C7:D7"/>
@@ -7757,12 +7873,12 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A2:H2"/>
   </mergeCells>
   <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -7780,31 +7896,31 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.71429" defaultRowHeight="13.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12.7344" style="110" customWidth="1"/>
-    <col min="2" max="2" width="12.7344" style="110" customWidth="1"/>
-    <col min="3" max="3" width="12.7344" style="110" customWidth="1"/>
-    <col min="4" max="4" width="12.7344" style="110" customWidth="1"/>
-    <col min="5" max="5" width="12.7344" style="110" customWidth="1"/>
-    <col min="6" max="6" width="12.7344" style="110" customWidth="1"/>
-    <col min="7" max="7" width="12.7344" style="110" customWidth="1"/>
-    <col min="8" max="8" width="12.7344" style="110" customWidth="1"/>
-    <col min="9" max="256" width="9.73438" style="110" customWidth="1"/>
+    <col min="1" max="1" width="12.7344" style="107" customWidth="1"/>
+    <col min="2" max="2" width="12.7344" style="107" customWidth="1"/>
+    <col min="3" max="3" width="12.7344" style="107" customWidth="1"/>
+    <col min="4" max="4" width="12.7344" style="107" customWidth="1"/>
+    <col min="5" max="5" width="12.7344" style="107" customWidth="1"/>
+    <col min="6" max="6" width="12.7344" style="107" customWidth="1"/>
+    <col min="7" max="7" width="12.7344" style="107" customWidth="1"/>
+    <col min="8" max="8" width="12.7344" style="107" customWidth="1"/>
+    <col min="9" max="256" width="9.73438" style="107" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="23" customHeight="1">
-      <c r="A1" t="s" s="111">
-        <v>228</v>
-      </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
+      <c r="A1" t="s" s="108">
+        <v>232</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
     </row>
     <row r="2" ht="17" customHeight="1">
-      <c r="A2" t="s" s="113">
+      <c r="A2" t="s" s="110">
         <v>14</v>
       </c>
       <c r="B2" s="17"/>
@@ -7821,7 +7937,7 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" t="s" s="21">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" t="s" s="21">
@@ -7829,7 +7945,7 @@
       </c>
       <c r="F3" s="20"/>
       <c r="G3" t="s" s="21">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H3" s="20"/>
     </row>
@@ -7839,7 +7955,7 @@
       </c>
       <c r="B4" s="20"/>
       <c r="C4" t="s" s="21">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" t="s" s="21">
@@ -7847,7 +7963,7 @@
       </c>
       <c r="F4" s="20"/>
       <c r="G4" t="s" s="21">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H4" s="20"/>
     </row>
@@ -7857,7 +7973,7 @@
       </c>
       <c r="B5" s="20"/>
       <c r="C5" t="s" s="21">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" t="s" s="21">
@@ -7870,236 +7986,236 @@
       <c r="H5" s="20"/>
     </row>
     <row r="6" ht="19" customHeight="1">
-      <c r="A6" t="s" s="70">
-        <v>230</v>
-      </c>
-      <c r="B6" s="68"/>
-      <c r="C6" t="s" s="70">
-        <v>231</v>
-      </c>
-      <c r="D6" s="68"/>
-      <c r="E6" t="s" s="70">
-        <v>232</v>
-      </c>
-      <c r="F6" s="68"/>
-      <c r="G6" t="s" s="70">
-        <v>233</v>
-      </c>
-      <c r="H6" s="68"/>
+      <c r="A6" t="s" s="68">
+        <v>234</v>
+      </c>
+      <c r="B6" s="66"/>
+      <c r="C6" t="s" s="68">
+        <v>235</v>
+      </c>
+      <c r="D6" s="66"/>
+      <c r="E6" t="s" s="68">
+        <v>236</v>
+      </c>
+      <c r="F6" s="66"/>
+      <c r="G6" t="s" s="68">
+        <v>237</v>
+      </c>
+      <c r="H6" s="66"/>
     </row>
     <row r="7" ht="19" customHeight="1">
-      <c r="A7" t="s" s="70">
-        <v>234</v>
-      </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
+      <c r="A7" t="s" s="68">
+        <v>238</v>
+      </c>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
     </row>
     <row r="8" ht="19" customHeight="1">
-      <c r="A8" t="s" s="114">
-        <v>235</v>
-      </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
+      <c r="A8" t="s" s="111">
+        <v>239</v>
+      </c>
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
     </row>
     <row r="9" ht="19" customHeight="1">
-      <c r="A9" t="s" s="70">
-        <v>236</v>
-      </c>
-      <c r="B9" s="68"/>
-      <c r="C9" t="s" s="70">
-        <v>237</v>
-      </c>
-      <c r="D9" s="68"/>
-      <c r="E9" t="s" s="70">
-        <v>238</v>
-      </c>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
+      <c r="A9" t="s" s="68">
+        <v>240</v>
+      </c>
+      <c r="B9" s="66"/>
+      <c r="C9" t="s" s="68">
+        <v>241</v>
+      </c>
+      <c r="D9" s="66"/>
+      <c r="E9" t="s" s="68">
+        <v>242</v>
+      </c>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
     </row>
     <row r="10" ht="19" customHeight="1">
-      <c r="A10" t="s" s="116">
-        <v>239</v>
-      </c>
-      <c r="B10" s="106"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" t="s" s="116">
-        <v>240</v>
-      </c>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
+      <c r="A10" t="s" s="113">
+        <v>243</v>
+      </c>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" t="s" s="113">
+        <v>244</v>
+      </c>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
     </row>
     <row r="11" ht="33" customHeight="1">
-      <c r="A11" t="s" s="116">
-        <v>241</v>
-      </c>
-      <c r="B11" s="106"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
-      <c r="E11" t="s" s="116">
-        <v>242</v>
-      </c>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
+      <c r="A11" t="s" s="113">
+        <v>245</v>
+      </c>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" t="s" s="113">
+        <v>246</v>
+      </c>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
     </row>
     <row r="12" ht="19" customHeight="1">
-      <c r="A12" t="s" s="116">
-        <v>243</v>
-      </c>
-      <c r="B12" s="106"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" t="s" s="116">
-        <v>244</v>
-      </c>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
+      <c r="A12" t="s" s="113">
+        <v>247</v>
+      </c>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" t="s" s="113">
+        <v>248</v>
+      </c>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
     </row>
     <row r="13" ht="19" customHeight="1">
-      <c r="A13" t="s" s="116">
-        <v>245</v>
-      </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" t="s" s="116">
-        <v>246</v>
-      </c>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
+      <c r="A13" t="s" s="113">
+        <v>249</v>
+      </c>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" t="s" s="113">
+        <v>250</v>
+      </c>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
     </row>
     <row r="14" ht="19" customHeight="1">
-      <c r="A14" t="s" s="114">
-        <v>247</v>
-      </c>
-      <c r="B14" s="115"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
+      <c r="A14" t="s" s="111">
+        <v>251</v>
+      </c>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
     </row>
     <row r="15" ht="16" customHeight="1">
-      <c r="A15" s="106"/>
-      <c r="B15" s="106"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
+      <c r="A15" s="103"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
     </row>
     <row r="16" ht="19" customHeight="1">
-      <c r="A16" t="s" s="114">
-        <v>248</v>
-      </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
+      <c r="A16" t="s" s="111">
+        <v>252</v>
+      </c>
+      <c r="B16" s="112"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="112"/>
     </row>
     <row r="17" ht="16" customHeight="1">
-      <c r="A17" s="106"/>
-      <c r="B17" s="106"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
+      <c r="A17" s="103"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
     </row>
     <row r="18" ht="19" customHeight="1">
-      <c r="A18" t="s" s="114">
-        <v>249</v>
-      </c>
-      <c r="B18" s="115"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
+      <c r="A18" t="s" s="111">
+        <v>253</v>
+      </c>
+      <c r="B18" s="112"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="112"/>
     </row>
     <row r="19" ht="16" customHeight="1">
-      <c r="A19" s="106"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="106"/>
+      <c r="A19" s="103"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
     </row>
     <row r="20" ht="19" customHeight="1">
-      <c r="A20" t="s" s="114">
-        <v>250</v>
-      </c>
-      <c r="B20" s="115"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
+      <c r="A20" t="s" s="111">
+        <v>254</v>
+      </c>
+      <c r="B20" s="112"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
     </row>
     <row r="21" ht="16" customHeight="1">
-      <c r="A21" s="106"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="106"/>
+      <c r="A21" s="103"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
     </row>
     <row r="22" ht="19" customHeight="1">
-      <c r="A22" t="s" s="114">
-        <v>251</v>
-      </c>
-      <c r="B22" s="115"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
+      <c r="A22" t="s" s="111">
+        <v>255</v>
+      </c>
+      <c r="B22" s="112"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="112"/>
     </row>
     <row r="23" ht="16" customHeight="1">
-      <c r="A23" s="106"/>
-      <c r="B23" s="106"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
+      <c r="A23" s="103"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="46">
     <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="E10:H10"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="C10:D10"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="A17:H17"/>
@@ -8136,11 +8252,11 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/doc/插件/渠道商/01管理/项目管理模板——芸众商城渠道商插件.xlsx
+++ b/doc/插件/渠道商/01管理/项目管理模板——芸众商城渠道商插件.xlsx
@@ -1741,7 +1741,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1966,9 +1966,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="7" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3365,15 +3362,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.71429" defaultRowHeight="13.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.57812" style="114" customWidth="1"/>
-    <col min="2" max="2" width="15.1562" style="114" customWidth="1"/>
-    <col min="3" max="3" width="13.1562" style="114" customWidth="1"/>
-    <col min="4" max="4" width="13.1562" style="114" customWidth="1"/>
-    <col min="5" max="5" width="12.7344" style="114" customWidth="1"/>
-    <col min="6" max="6" width="19.1562" style="114" customWidth="1"/>
-    <col min="7" max="7" width="10.7344" style="114" customWidth="1"/>
-    <col min="8" max="8" width="12.1562" style="114" customWidth="1"/>
-    <col min="9" max="256" width="9.73438" style="114" customWidth="1"/>
+    <col min="1" max="1" width="5.57812" style="113" customWidth="1"/>
+    <col min="2" max="2" width="15.1562" style="113" customWidth="1"/>
+    <col min="3" max="3" width="13.1562" style="113" customWidth="1"/>
+    <col min="4" max="4" width="13.1562" style="113" customWidth="1"/>
+    <col min="5" max="5" width="12.7344" style="113" customWidth="1"/>
+    <col min="6" max="6" width="19.1562" style="113" customWidth="1"/>
+    <col min="7" max="7" width="10.7344" style="113" customWidth="1"/>
+    <col min="8" max="8" width="12.1562" style="113" customWidth="1"/>
+    <col min="9" max="256" width="9.73438" style="113" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.5" customHeight="1">
@@ -3455,16 +3452,16 @@
       <c r="H5" s="22"/>
     </row>
     <row r="6" ht="19" customHeight="1">
-      <c r="A6" t="s" s="115">
+      <c r="A6" t="s" s="114">
         <v>257</v>
       </c>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="116"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="115"/>
     </row>
     <row r="7" ht="19" customHeight="1">
       <c r="A7" t="s" s="65">
@@ -3491,7 +3488,7 @@
       </c>
     </row>
     <row r="8" ht="35" customHeight="1">
-      <c r="A8" s="117">
+      <c r="A8" s="116">
         <v>1</v>
       </c>
       <c r="B8" s="66">
@@ -3515,7 +3512,7 @@
       </c>
     </row>
     <row r="9" ht="35" customHeight="1">
-      <c r="A9" s="117">
+      <c r="A9" s="116">
         <v>2</v>
       </c>
       <c r="B9" s="66">
@@ -3539,7 +3536,7 @@
       </c>
     </row>
     <row r="10" ht="35" customHeight="1">
-      <c r="A10" s="117">
+      <c r="A10" s="116">
         <v>3</v>
       </c>
       <c r="B10" s="66">
@@ -3563,76 +3560,76 @@
       </c>
     </row>
     <row r="11" ht="19" customHeight="1">
-      <c r="A11" t="s" s="115">
+      <c r="A11" t="s" s="114">
         <v>273</v>
       </c>
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="116"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="115"/>
     </row>
     <row r="12" ht="19" customHeight="1">
       <c r="A12" t="s" s="70">
         <v>274</v>
       </c>
-      <c r="B12" s="103"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
       <c r="H12" s="74"/>
     </row>
     <row r="13" ht="19" customHeight="1">
       <c r="A13" t="s" s="70">
         <v>275</v>
       </c>
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
       <c r="H13" s="74"/>
     </row>
     <row r="14" ht="19" customHeight="1">
       <c r="A14" t="s" s="70">
         <v>276</v>
       </c>
-      <c r="B14" s="103"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
       <c r="H14" s="74"/>
     </row>
     <row r="15" ht="19" customHeight="1">
       <c r="A15" t="s" s="70">
         <v>277</v>
       </c>
-      <c r="B15" s="103"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
       <c r="H15" s="74"/>
     </row>
     <row r="16" ht="19" customHeight="1">
-      <c r="A16" t="s" s="115">
+      <c r="A16" t="s" s="114">
         <v>278</v>
       </c>
-      <c r="B16" s="112"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="116"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="115"/>
     </row>
     <row r="17" ht="19" customHeight="1">
       <c r="A17" t="s" s="65">
@@ -3673,13 +3670,13 @@
         <v>286</v>
       </c>
       <c r="B19" s="66"/>
-      <c r="C19" t="s" s="113">
+      <c r="C19" t="s" s="112">
         <v>287</v>
       </c>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
       <c r="H19" s="74"/>
     </row>
     <row r="20" ht="19" customHeight="1">
@@ -3687,13 +3684,13 @@
         <v>288</v>
       </c>
       <c r="B20" s="66"/>
-      <c r="C20" t="s" s="113">
+      <c r="C20" t="s" s="112">
         <v>289</v>
       </c>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
       <c r="H20" s="74"/>
     </row>
     <row r="21" ht="19" customHeight="1">
@@ -3701,13 +3698,13 @@
         <v>290</v>
       </c>
       <c r="B21" s="66"/>
-      <c r="C21" t="s" s="113">
+      <c r="C21" t="s" s="112">
         <v>291</v>
       </c>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
       <c r="H21" s="74"/>
     </row>
     <row r="22" ht="19" customHeight="1">
@@ -3733,13 +3730,13 @@
         <v>296</v>
       </c>
       <c r="B23" s="66"/>
-      <c r="C23" t="s" s="113">
+      <c r="C23" t="s" s="112">
         <v>297</v>
       </c>
-      <c r="D23" s="103"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="103"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="102"/>
       <c r="H23" s="74"/>
     </row>
     <row r="24" ht="19" customHeight="1">
@@ -3761,91 +3758,91 @@
       <c r="H24" s="67"/>
     </row>
     <row r="25" ht="19" customHeight="1">
-      <c r="A25" t="s" s="115">
+      <c r="A25" t="s" s="114">
         <v>302</v>
       </c>
-      <c r="B25" s="112"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="112"/>
-      <c r="H25" s="116"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="115"/>
     </row>
     <row r="26" ht="54.75" customHeight="1">
-      <c r="A26" t="s" s="118">
+      <c r="A26" t="s" s="117">
         <v>303</v>
       </c>
-      <c r="B26" s="119"/>
-      <c r="C26" t="s" s="120">
+      <c r="B26" s="118"/>
+      <c r="C26" t="s" s="119">
         <v>304</v>
       </c>
-      <c r="D26" s="105"/>
-      <c r="E26" t="s" s="121">
+      <c r="D26" s="104"/>
+      <c r="E26" t="s" s="120">
         <v>305</v>
       </c>
-      <c r="F26" t="s" s="121">
+      <c r="F26" t="s" s="120">
         <v>187</v>
       </c>
-      <c r="G26" t="s" s="121">
+      <c r="G26" t="s" s="120">
         <v>40</v>
       </c>
-      <c r="H26" s="122">
+      <c r="H26" s="121">
         <v>38555</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C23:H23"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -3863,15 +3860,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.71429" defaultRowHeight="13.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.1562" style="123" customWidth="1"/>
-    <col min="2" max="2" width="10" style="123" customWidth="1"/>
-    <col min="3" max="3" width="9" style="123" customWidth="1"/>
-    <col min="4" max="4" width="9" style="123" customWidth="1"/>
-    <col min="5" max="5" width="11.1562" style="123" customWidth="1"/>
-    <col min="6" max="6" width="11.1562" style="123" customWidth="1"/>
-    <col min="7" max="7" width="9" style="123" customWidth="1"/>
-    <col min="8" max="8" width="11.1562" style="123" customWidth="1"/>
-    <col min="9" max="256" width="9.73438" style="123" customWidth="1"/>
+    <col min="1" max="1" width="10.1562" style="122" customWidth="1"/>
+    <col min="2" max="2" width="10" style="122" customWidth="1"/>
+    <col min="3" max="3" width="9" style="122" customWidth="1"/>
+    <col min="4" max="4" width="9" style="122" customWidth="1"/>
+    <col min="5" max="5" width="11.1562" style="122" customWidth="1"/>
+    <col min="6" max="6" width="11.1562" style="122" customWidth="1"/>
+    <col min="7" max="7" width="9" style="122" customWidth="1"/>
+    <col min="8" max="8" width="11.1562" style="122" customWidth="1"/>
+    <col min="9" max="256" width="9.73438" style="122" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.5" customHeight="1">
@@ -3953,27 +3950,27 @@
       <c r="H5" s="22"/>
     </row>
     <row r="6" ht="19" customHeight="1">
-      <c r="A6" t="s" s="115">
+      <c r="A6" t="s" s="114">
         <v>307</v>
       </c>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="116"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="115"/>
     </row>
     <row r="7" ht="19" customHeight="1">
       <c r="A7" t="s" s="70">
         <v>308</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
       <c r="H7" s="74"/>
     </row>
     <row r="8" ht="19" customHeight="1">
@@ -4002,36 +3999,36 @@
       <c r="A9" t="s" s="70">
         <v>311</v>
       </c>
-      <c r="B9" s="103"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
       <c r="H9" s="74"/>
     </row>
     <row r="10" ht="19" customHeight="1">
       <c r="A10" t="s" s="70">
         <v>312</v>
       </c>
-      <c r="B10" s="103"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
       <c r="H10" s="74"/>
     </row>
     <row r="11" ht="19" customHeight="1">
       <c r="A11" t="s" s="70">
         <v>313</v>
       </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
       <c r="H11" s="74"/>
     </row>
     <row r="12" ht="19" customHeight="1">
@@ -4056,156 +4053,156 @@
       <c r="A13" t="s" s="70">
         <v>318</v>
       </c>
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
       <c r="H13" s="74"/>
     </row>
     <row r="14" ht="19" customHeight="1">
       <c r="A14" t="s" s="70">
         <v>319</v>
       </c>
-      <c r="B14" s="103"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
       <c r="H14" s="74"/>
     </row>
     <row r="15" ht="19" customHeight="1">
       <c r="A15" t="s" s="70">
         <v>320</v>
       </c>
-      <c r="B15" s="103"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
       <c r="H15" s="74"/>
     </row>
     <row r="16" ht="19" customHeight="1">
       <c r="A16" t="s" s="70">
         <v>321</v>
       </c>
-      <c r="B16" s="103"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
       <c r="H16" s="74"/>
     </row>
     <row r="17" ht="40.5" customHeight="1">
       <c r="A17" t="s" s="70">
         <v>322</v>
       </c>
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
       <c r="H17" s="74"/>
     </row>
     <row r="18" ht="19" customHeight="1">
       <c r="A18" t="s" s="70">
         <v>323</v>
       </c>
-      <c r="B18" s="103"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
       <c r="H18" s="74"/>
     </row>
     <row r="19" ht="30.75" customHeight="1">
       <c r="A19" t="s" s="70">
         <v>324</v>
       </c>
-      <c r="B19" s="103"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
       <c r="H19" s="74"/>
     </row>
     <row r="20" ht="19" customHeight="1">
       <c r="A20" t="s" s="70">
         <v>325</v>
       </c>
-      <c r="B20" s="103"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
       <c r="H20" s="74"/>
     </row>
     <row r="21" ht="19" customHeight="1">
       <c r="A21" t="s" s="70">
         <v>326</v>
       </c>
-      <c r="B21" s="103"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
       <c r="H21" s="74"/>
     </row>
     <row r="22" ht="19" customHeight="1">
       <c r="A22" t="s" s="70">
         <v>327</v>
       </c>
-      <c r="B22" s="103"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
       <c r="H22" s="74"/>
     </row>
     <row r="23" ht="19" customHeight="1">
       <c r="A23" t="s" s="70">
         <v>328</v>
       </c>
-      <c r="B23" s="103"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="103"/>
+      <c r="B23" s="102"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="102"/>
       <c r="H23" s="74"/>
     </row>
     <row r="24" ht="19" customHeight="1">
-      <c r="A24" t="s" s="115">
+      <c r="A24" t="s" s="114">
         <v>329</v>
       </c>
-      <c r="B24" s="112"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="112"/>
-      <c r="H24" s="116"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="115"/>
     </row>
     <row r="25" ht="140.25" customHeight="1">
       <c r="A25" t="s" s="70">
         <v>330</v>
       </c>
-      <c r="B25" s="103"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
       <c r="H25" s="74"/>
     </row>
     <row r="26" ht="19" customHeight="1">
@@ -4239,69 +4236,69 @@
       <c r="H27" s="67"/>
     </row>
     <row r="28" ht="19.5" customHeight="1">
-      <c r="A28" t="s" s="118">
+      <c r="A28" t="s" s="117">
         <v>22</v>
       </c>
-      <c r="B28" s="119"/>
-      <c r="C28" t="s" s="121">
+      <c r="B28" s="118"/>
+      <c r="C28" t="s" s="120">
         <v>211</v>
       </c>
-      <c r="D28" s="119"/>
-      <c r="E28" s="119">
+      <c r="D28" s="118"/>
+      <c r="E28" s="118">
         <v>38560</v>
       </c>
-      <c r="F28" s="119"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="122"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="E28:H28"/>
     <mergeCell ref="A21:H21"/>
     <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E27:H27"/>
     <mergeCell ref="A22:H22"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -4558,27 +4555,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -4915,48 +4912,48 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E18:F18"/>
     <mergeCell ref="G21:H21"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -6430,44 +6427,44 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="C15:C23"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B13:B38"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A6:Q6"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="C35:C38"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B13:B38"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="C15:C23"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -6868,7 +6865,9 @@
       <c r="I13" t="s" s="71">
         <v>173</v>
       </c>
-      <c r="J13" s="75"/>
+      <c r="J13" t="s" s="71">
+        <v>173</v>
+      </c>
       <c r="K13" s="66"/>
       <c r="L13" s="66"/>
       <c r="M13" s="66"/>
@@ -6896,7 +6895,9 @@
       <c r="I14" t="s" s="71">
         <v>173</v>
       </c>
-      <c r="J14" s="75"/>
+      <c r="J14" t="s" s="71">
+        <v>173</v>
+      </c>
       <c r="K14" s="66"/>
       <c r="L14" s="66"/>
       <c r="M14" s="66"/>
@@ -6941,10 +6942,10 @@
       <c r="B16" s="66"/>
       <c r="C16" s="66"/>
       <c r="D16" s="66"/>
-      <c r="E16" t="s" s="76">
+      <c r="E16" t="s" s="75">
         <v>173</v>
       </c>
-      <c r="F16" t="s" s="76">
+      <c r="F16" t="s" s="75">
         <v>173</v>
       </c>
       <c r="G16" s="66"/>
@@ -6971,20 +6972,22 @@
       <c r="D17" s="66"/>
       <c r="E17" s="66"/>
       <c r="F17" s="66"/>
-      <c r="G17" t="s" s="76">
+      <c r="G17" t="s" s="75">
         <v>173</v>
       </c>
-      <c r="H17" t="s" s="76">
+      <c r="H17" t="s" s="75">
         <v>173</v>
       </c>
-      <c r="I17" t="s" s="76">
+      <c r="I17" t="s" s="75">
         <v>173</v>
       </c>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
+      <c r="J17" t="s" s="75">
+        <v>173</v>
+      </c>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76"/>
       <c r="O17" s="49"/>
       <c r="P17" s="49"/>
       <c r="Q17" t="s" s="68">
@@ -7002,10 +7005,10 @@
       <c r="E18" s="66"/>
       <c r="F18" s="66"/>
       <c r="G18" s="66"/>
-      <c r="H18" t="s" s="76">
+      <c r="H18" t="s" s="75">
         <v>173</v>
       </c>
-      <c r="I18" t="s" s="76">
+      <c r="I18" t="s" s="75">
         <v>173</v>
       </c>
       <c r="J18" s="66"/>
@@ -7041,45 +7044,45 @@
       <c r="R19" s="72"/>
     </row>
     <row r="20" ht="21.75" customHeight="1">
-      <c r="A20" s="78"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="79"/>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="80"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:R6"/>
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="J7:N7"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A6:R6"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q4:R4"/>
   </mergeCells>
   <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -7097,15 +7100,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.71429" defaultRowHeight="13.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.15625" style="81" customWidth="1"/>
-    <col min="2" max="2" width="17.2891" style="81" customWidth="1"/>
-    <col min="3" max="3" width="8" style="81" customWidth="1"/>
-    <col min="4" max="4" width="8" style="81" customWidth="1"/>
-    <col min="5" max="5" width="8" style="81" customWidth="1"/>
-    <col min="6" max="6" width="22.7344" style="81" customWidth="1"/>
-    <col min="7" max="7" width="6.28906" style="81" customWidth="1"/>
-    <col min="8" max="8" width="8.73438" style="81" customWidth="1"/>
-    <col min="9" max="256" width="9.73438" style="81" customWidth="1"/>
+    <col min="1" max="1" width="6.15625" style="80" customWidth="1"/>
+    <col min="2" max="2" width="17.2891" style="80" customWidth="1"/>
+    <col min="3" max="3" width="8" style="80" customWidth="1"/>
+    <col min="4" max="4" width="8" style="80" customWidth="1"/>
+    <col min="5" max="5" width="8" style="80" customWidth="1"/>
+    <col min="6" max="6" width="22.7344" style="80" customWidth="1"/>
+    <col min="7" max="7" width="6.28906" style="80" customWidth="1"/>
+    <col min="8" max="8" width="8.73438" style="80" customWidth="1"/>
+    <col min="9" max="256" width="9.73438" style="80" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -7133,58 +7136,58 @@
       <c r="H2" s="18"/>
     </row>
     <row r="3" ht="21.75" customHeight="1">
-      <c r="A3" t="s" s="82">
+      <c r="A3" t="s" s="81">
         <v>15</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" t="s" s="84">
+      <c r="B3" s="82"/>
+      <c r="C3" t="s" s="83">
         <v>185</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" t="s" s="84">
+      <c r="D3" s="82"/>
+      <c r="E3" t="s" s="83">
         <v>17</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" t="s" s="84">
+      <c r="F3" s="82"/>
+      <c r="G3" t="s" s="83">
         <v>186</v>
       </c>
-      <c r="H3" s="85"/>
+      <c r="H3" s="84"/>
     </row>
     <row r="4" ht="21.75" customHeight="1">
-      <c r="A4" t="s" s="82">
+      <c r="A4" t="s" s="81">
         <v>18</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" t="s" s="84">
+      <c r="B4" s="82"/>
+      <c r="C4" t="s" s="83">
         <v>19</v>
       </c>
-      <c r="D4" s="83"/>
-      <c r="E4" t="s" s="84">
+      <c r="D4" s="82"/>
+      <c r="E4" t="s" s="83">
         <v>20</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" t="s" s="84">
+      <c r="F4" s="82"/>
+      <c r="G4" t="s" s="83">
         <v>187</v>
       </c>
-      <c r="H4" s="85"/>
+      <c r="H4" s="84"/>
     </row>
     <row r="5" ht="21.75" customHeight="1">
-      <c r="A5" t="s" s="82">
+      <c r="A5" t="s" s="81">
         <v>22</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" t="s" s="84">
+      <c r="B5" s="82"/>
+      <c r="C5" t="s" s="83">
         <v>21</v>
       </c>
-      <c r="D5" s="83"/>
-      <c r="E5" t="s" s="84">
+      <c r="D5" s="82"/>
+      <c r="E5" t="s" s="83">
         <v>23</v>
       </c>
-      <c r="F5" s="83"/>
-      <c r="G5" s="86">
+      <c r="F5" s="82"/>
+      <c r="G5" s="85">
         <v>42558</v>
       </c>
-      <c r="H5" s="85"/>
+      <c r="H5" s="84"/>
     </row>
     <row r="6" ht="21.75" customHeight="1">
       <c r="A6" t="s" s="16">
@@ -7305,7 +7308,7 @@
       </c>
     </row>
     <row r="14" ht="35" customHeight="1">
-      <c r="A14" s="87">
+      <c r="A14" s="86">
         <v>5</v>
       </c>
       <c r="B14" s="33"/>
@@ -7314,29 +7317,29 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
-      <c r="H14" t="s" s="88">
+      <c r="H14" t="s" s="87">
         <v>197</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A7:H7"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A8:H8"/>
   </mergeCells>
   <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -7354,15 +7357,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.71429" defaultRowHeight="13.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.7344" style="89" customWidth="1"/>
-    <col min="2" max="2" width="10.7344" style="89" customWidth="1"/>
-    <col min="3" max="3" width="10.7344" style="89" customWidth="1"/>
-    <col min="4" max="4" width="10.7344" style="89" customWidth="1"/>
-    <col min="5" max="5" width="10.7344" style="89" customWidth="1"/>
-    <col min="6" max="6" width="10.7344" style="89" customWidth="1"/>
-    <col min="7" max="7" width="10.7344" style="89" customWidth="1"/>
-    <col min="8" max="8" width="10.7344" style="89" customWidth="1"/>
-    <col min="9" max="256" width="9.73438" style="89" customWidth="1"/>
+    <col min="1" max="1" width="10.7344" style="88" customWidth="1"/>
+    <col min="2" max="2" width="10.7344" style="88" customWidth="1"/>
+    <col min="3" max="3" width="10.7344" style="88" customWidth="1"/>
+    <col min="4" max="4" width="10.7344" style="88" customWidth="1"/>
+    <col min="5" max="5" width="10.7344" style="88" customWidth="1"/>
+    <col min="6" max="6" width="10.7344" style="88" customWidth="1"/>
+    <col min="7" max="7" width="10.7344" style="88" customWidth="1"/>
+    <col min="8" max="8" width="10.7344" style="88" customWidth="1"/>
+    <col min="9" max="256" width="9.73438" style="88" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -7444,16 +7447,16 @@
       <c r="H5" s="22"/>
     </row>
     <row r="6" ht="21.75" customHeight="1">
-      <c r="A6" t="s" s="90">
+      <c r="A6" t="s" s="89">
         <v>199</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="92"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="91"/>
     </row>
     <row r="7" ht="21.75" customHeight="1">
       <c r="A7" t="s" s="19">
@@ -7520,52 +7523,52 @@
       <c r="H11" s="26"/>
     </row>
     <row r="12" ht="21.75" customHeight="1">
-      <c r="A12" t="s" s="93">
+      <c r="A12" t="s" s="92">
         <v>204</v>
       </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="97"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F12:G12"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -7583,15 +7586,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.71429" defaultRowHeight="13.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12.7344" style="98" customWidth="1"/>
-    <col min="2" max="2" width="12.7344" style="98" customWidth="1"/>
-    <col min="3" max="3" width="12.7344" style="98" customWidth="1"/>
-    <col min="4" max="4" width="12.7344" style="98" customWidth="1"/>
-    <col min="5" max="5" width="12.7344" style="98" customWidth="1"/>
-    <col min="6" max="6" width="12.7344" style="98" customWidth="1"/>
-    <col min="7" max="7" width="12.7344" style="98" customWidth="1"/>
-    <col min="8" max="8" width="12.7344" style="98" customWidth="1"/>
-    <col min="9" max="256" width="9.73438" style="98" customWidth="1"/>
+    <col min="1" max="1" width="12.7344" style="97" customWidth="1"/>
+    <col min="2" max="2" width="12.7344" style="97" customWidth="1"/>
+    <col min="3" max="3" width="12.7344" style="97" customWidth="1"/>
+    <col min="4" max="4" width="12.7344" style="97" customWidth="1"/>
+    <col min="5" max="5" width="12.7344" style="97" customWidth="1"/>
+    <col min="6" max="6" width="12.7344" style="97" customWidth="1"/>
+    <col min="7" max="7" width="12.7344" style="97" customWidth="1"/>
+    <col min="8" max="8" width="12.7344" style="97" customWidth="1"/>
+    <col min="9" max="256" width="9.73438" style="97" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -7619,16 +7622,16 @@
       <c r="H2" s="67"/>
     </row>
     <row r="3" ht="21.75" customHeight="1">
-      <c r="A3" t="s" s="99">
+      <c r="A3" t="s" s="98">
         <v>207</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="101"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="100"/>
     </row>
     <row r="4" ht="21.75" customHeight="1">
       <c r="A4" t="s" s="65">
@@ -7661,7 +7664,7 @@
         <v>213</v>
       </c>
       <c r="F5" s="66"/>
-      <c r="G5" s="102">
+      <c r="G5" s="101">
         <v>0.7083333333333333</v>
       </c>
       <c r="H5" s="67"/>
@@ -7703,182 +7706,182 @@
       <c r="H7" s="67"/>
     </row>
     <row r="8" ht="21.75" customHeight="1">
-      <c r="A8" t="s" s="99">
+      <c r="A8" t="s" s="98">
         <v>220</v>
       </c>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="101"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="100"/>
     </row>
     <row r="9" ht="21.75" customHeight="1">
       <c r="A9" t="s" s="70">
         <v>221</v>
       </c>
-      <c r="B9" s="103"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
       <c r="H9" s="74"/>
     </row>
     <row r="10" ht="21.75" customHeight="1">
-      <c r="A10" t="s" s="99">
+      <c r="A10" t="s" s="98">
         <v>222</v>
       </c>
-      <c r="B10" s="100"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="101"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="100"/>
     </row>
     <row r="11" ht="61.5" customHeight="1">
       <c r="A11" t="s" s="70">
         <v>223</v>
       </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
       <c r="H11" s="74"/>
     </row>
     <row r="12" ht="21.75" customHeight="1">
-      <c r="A12" t="s" s="99">
+      <c r="A12" t="s" s="98">
         <v>224</v>
       </c>
-      <c r="B12" s="100"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="101"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="100"/>
     </row>
     <row r="13" ht="39.75" customHeight="1">
       <c r="A13" t="s" s="70">
         <v>225</v>
       </c>
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
       <c r="H13" s="74"/>
     </row>
     <row r="14" ht="21.75" customHeight="1">
-      <c r="A14" t="s" s="99">
+      <c r="A14" t="s" s="98">
         <v>226</v>
       </c>
-      <c r="B14" s="100"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="101"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="100"/>
     </row>
     <row r="15" ht="81.75" customHeight="1">
       <c r="A15" t="s" s="70">
         <v>227</v>
       </c>
-      <c r="B15" s="103"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
       <c r="H15" s="74"/>
     </row>
     <row r="16" ht="21.75" customHeight="1">
-      <c r="A16" t="s" s="99">
+      <c r="A16" t="s" s="98">
         <v>228</v>
       </c>
-      <c r="B16" s="100"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="101"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="100"/>
     </row>
     <row r="17" ht="21.75" customHeight="1">
       <c r="A17" t="s" s="70">
         <v>229</v>
       </c>
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
       <c r="H17" s="74"/>
     </row>
     <row r="18" ht="21.75" customHeight="1">
-      <c r="A18" t="s" s="99">
+      <c r="A18" t="s" s="98">
         <v>230</v>
       </c>
-      <c r="B18" s="100"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="101"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="100"/>
     </row>
     <row r="19" ht="57" customHeight="1">
-      <c r="A19" t="s" s="104">
+      <c r="A19" t="s" s="103">
         <v>231</v>
       </c>
-      <c r="B19" s="105"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="106"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A18:H18"/>
     <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -7896,31 +7899,31 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.71429" defaultRowHeight="13.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12.7344" style="107" customWidth="1"/>
-    <col min="2" max="2" width="12.7344" style="107" customWidth="1"/>
-    <col min="3" max="3" width="12.7344" style="107" customWidth="1"/>
-    <col min="4" max="4" width="12.7344" style="107" customWidth="1"/>
-    <col min="5" max="5" width="12.7344" style="107" customWidth="1"/>
-    <col min="6" max="6" width="12.7344" style="107" customWidth="1"/>
-    <col min="7" max="7" width="12.7344" style="107" customWidth="1"/>
-    <col min="8" max="8" width="12.7344" style="107" customWidth="1"/>
-    <col min="9" max="256" width="9.73438" style="107" customWidth="1"/>
+    <col min="1" max="1" width="12.7344" style="106" customWidth="1"/>
+    <col min="2" max="2" width="12.7344" style="106" customWidth="1"/>
+    <col min="3" max="3" width="12.7344" style="106" customWidth="1"/>
+    <col min="4" max="4" width="12.7344" style="106" customWidth="1"/>
+    <col min="5" max="5" width="12.7344" style="106" customWidth="1"/>
+    <col min="6" max="6" width="12.7344" style="106" customWidth="1"/>
+    <col min="7" max="7" width="12.7344" style="106" customWidth="1"/>
+    <col min="8" max="8" width="12.7344" style="106" customWidth="1"/>
+    <col min="9" max="256" width="9.73438" style="106" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="23" customHeight="1">
-      <c r="A1" t="s" s="108">
+      <c r="A1" t="s" s="107">
         <v>232</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
     </row>
     <row r="2" ht="17" customHeight="1">
-      <c r="A2" t="s" s="110">
+      <c r="A2" t="s" s="109">
         <v>14</v>
       </c>
       <c r="B2" s="17"/>
@@ -8016,16 +8019,16 @@
       <c r="H7" s="66"/>
     </row>
     <row r="8" ht="19" customHeight="1">
-      <c r="A8" t="s" s="111">
+      <c r="A8" t="s" s="110">
         <v>239</v>
       </c>
-      <c r="B8" s="112"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
     </row>
     <row r="9" ht="19" customHeight="1">
       <c r="A9" t="s" s="68">
@@ -8044,219 +8047,219 @@
       <c r="H9" s="66"/>
     </row>
     <row r="10" ht="19" customHeight="1">
-      <c r="A10" t="s" s="113">
+      <c r="A10" t="s" s="112">
         <v>243</v>
       </c>
-      <c r="B10" s="103"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" t="s" s="113">
+      <c r="B10" s="102"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" t="s" s="112">
         <v>244</v>
       </c>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
     </row>
     <row r="11" ht="33" customHeight="1">
-      <c r="A11" t="s" s="113">
+      <c r="A11" t="s" s="112">
         <v>245</v>
       </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" t="s" s="113">
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" t="s" s="112">
         <v>246</v>
       </c>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
     </row>
     <row r="12" ht="19" customHeight="1">
-      <c r="A12" t="s" s="113">
+      <c r="A12" t="s" s="112">
         <v>247</v>
       </c>
-      <c r="B12" s="103"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" t="s" s="113">
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" t="s" s="112">
         <v>248</v>
       </c>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
     </row>
     <row r="13" ht="19" customHeight="1">
-      <c r="A13" t="s" s="113">
+      <c r="A13" t="s" s="112">
         <v>249</v>
       </c>
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" t="s" s="113">
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" t="s" s="112">
         <v>250</v>
       </c>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
     </row>
     <row r="14" ht="19" customHeight="1">
-      <c r="A14" t="s" s="111">
+      <c r="A14" t="s" s="110">
         <v>251</v>
       </c>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
     </row>
     <row r="15" ht="16" customHeight="1">
-      <c r="A15" s="103"/>
-      <c r="B15" s="103"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
+      <c r="A15" s="102"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
     </row>
     <row r="16" ht="19" customHeight="1">
-      <c r="A16" t="s" s="111">
+      <c r="A16" t="s" s="110">
         <v>252</v>
       </c>
-      <c r="B16" s="112"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="112"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
     </row>
     <row r="17" ht="16" customHeight="1">
-      <c r="A17" s="103"/>
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
+      <c r="A17" s="102"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
     </row>
     <row r="18" ht="19" customHeight="1">
-      <c r="A18" t="s" s="111">
+      <c r="A18" t="s" s="110">
         <v>253</v>
       </c>
-      <c r="B18" s="112"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="112"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="111"/>
     </row>
     <row r="19" ht="16" customHeight="1">
-      <c r="A19" s="103"/>
-      <c r="B19" s="103"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
+      <c r="A19" s="102"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
     </row>
     <row r="20" ht="19" customHeight="1">
-      <c r="A20" t="s" s="111">
+      <c r="A20" t="s" s="110">
         <v>254</v>
       </c>
-      <c r="B20" s="112"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="111"/>
     </row>
     <row r="21" ht="16" customHeight="1">
-      <c r="A21" s="103"/>
-      <c r="B21" s="103"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
+      <c r="A21" s="102"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="102"/>
     </row>
     <row r="22" ht="19" customHeight="1">
-      <c r="A22" t="s" s="111">
+      <c r="A22" t="s" s="110">
         <v>255</v>
       </c>
-      <c r="B22" s="112"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="112"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="111"/>
     </row>
     <row r="23" ht="16" customHeight="1">
-      <c r="A23" s="103"/>
-      <c r="B23" s="103"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="103"/>
+      <c r="A23" s="102"/>
+      <c r="B23" s="102"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A18:H18"/>
     <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/doc/插件/渠道商/01管理/项目管理模板——芸众商城渠道商插件.xlsx
+++ b/doc/插件/渠道商/01管理/项目管理模板——芸众商城渠道商插件.xlsx
@@ -391,7 +391,7 @@
     <t>3.1_6</t>
   </si>
   <si>
-    <t>我的库存（详细：所有库存不为0的商品列表。每一条记录包括商品图片，名称，库存。操作：囤货（跳入采购页），自用（直接生成订单，不需要支付，不走分销和分红等））</t>
+    <t>我的库存（详细：所有库存不为0的商品列表。每一条记录包括商品图片，名称，库存。操作：囤货（跳入采购页），自用（直接生成订单，不需要支付，不走分销和分红等））。库存规格及扣除库存</t>
   </si>
   <si>
     <t>3.1_7</t>
@@ -1741,7 +1741,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1968,9 +1968,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="7" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -3362,15 +3359,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.71429" defaultRowHeight="13.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.57812" style="113" customWidth="1"/>
-    <col min="2" max="2" width="15.1562" style="113" customWidth="1"/>
-    <col min="3" max="3" width="13.1562" style="113" customWidth="1"/>
-    <col min="4" max="4" width="13.1562" style="113" customWidth="1"/>
-    <col min="5" max="5" width="12.7344" style="113" customWidth="1"/>
-    <col min="6" max="6" width="19.1562" style="113" customWidth="1"/>
-    <col min="7" max="7" width="10.7344" style="113" customWidth="1"/>
-    <col min="8" max="8" width="12.1562" style="113" customWidth="1"/>
-    <col min="9" max="256" width="9.73438" style="113" customWidth="1"/>
+    <col min="1" max="1" width="5.57812" style="112" customWidth="1"/>
+    <col min="2" max="2" width="15.1562" style="112" customWidth="1"/>
+    <col min="3" max="3" width="13.1562" style="112" customWidth="1"/>
+    <col min="4" max="4" width="13.1562" style="112" customWidth="1"/>
+    <col min="5" max="5" width="12.7344" style="112" customWidth="1"/>
+    <col min="6" max="6" width="19.1562" style="112" customWidth="1"/>
+    <col min="7" max="7" width="10.7344" style="112" customWidth="1"/>
+    <col min="8" max="8" width="12.1562" style="112" customWidth="1"/>
+    <col min="9" max="256" width="9.73438" style="112" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.5" customHeight="1">
@@ -3452,16 +3449,16 @@
       <c r="H5" s="22"/>
     </row>
     <row r="6" ht="19" customHeight="1">
-      <c r="A6" t="s" s="114">
+      <c r="A6" t="s" s="113">
         <v>257</v>
       </c>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="115"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="114"/>
     </row>
     <row r="7" ht="19" customHeight="1">
       <c r="A7" t="s" s="65">
@@ -3488,7 +3485,7 @@
       </c>
     </row>
     <row r="8" ht="35" customHeight="1">
-      <c r="A8" s="116">
+      <c r="A8" s="115">
         <v>1</v>
       </c>
       <c r="B8" s="66">
@@ -3512,7 +3509,7 @@
       </c>
     </row>
     <row r="9" ht="35" customHeight="1">
-      <c r="A9" s="116">
+      <c r="A9" s="115">
         <v>2</v>
       </c>
       <c r="B9" s="66">
@@ -3536,7 +3533,7 @@
       </c>
     </row>
     <row r="10" ht="35" customHeight="1">
-      <c r="A10" s="116">
+      <c r="A10" s="115">
         <v>3</v>
       </c>
       <c r="B10" s="66">
@@ -3560,76 +3557,76 @@
       </c>
     </row>
     <row r="11" ht="19" customHeight="1">
-      <c r="A11" t="s" s="114">
+      <c r="A11" t="s" s="113">
         <v>273</v>
       </c>
-      <c r="B11" s="111"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="115"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="114"/>
     </row>
     <row r="12" ht="19" customHeight="1">
       <c r="A12" t="s" s="70">
         <v>274</v>
       </c>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
       <c r="H12" s="74"/>
     </row>
     <row r="13" ht="19" customHeight="1">
       <c r="A13" t="s" s="70">
         <v>275</v>
       </c>
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
       <c r="H13" s="74"/>
     </row>
     <row r="14" ht="19" customHeight="1">
       <c r="A14" t="s" s="70">
         <v>276</v>
       </c>
-      <c r="B14" s="102"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
       <c r="H14" s="74"/>
     </row>
     <row r="15" ht="19" customHeight="1">
       <c r="A15" t="s" s="70">
         <v>277</v>
       </c>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
       <c r="H15" s="74"/>
     </row>
     <row r="16" ht="19" customHeight="1">
-      <c r="A16" t="s" s="114">
+      <c r="A16" t="s" s="113">
         <v>278</v>
       </c>
-      <c r="B16" s="111"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="115"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="114"/>
     </row>
     <row r="17" ht="19" customHeight="1">
       <c r="A17" t="s" s="65">
@@ -3670,13 +3667,13 @@
         <v>286</v>
       </c>
       <c r="B19" s="66"/>
-      <c r="C19" t="s" s="112">
+      <c r="C19" t="s" s="111">
         <v>287</v>
       </c>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
       <c r="H19" s="74"/>
     </row>
     <row r="20" ht="19" customHeight="1">
@@ -3684,13 +3681,13 @@
         <v>288</v>
       </c>
       <c r="B20" s="66"/>
-      <c r="C20" t="s" s="112">
+      <c r="C20" t="s" s="111">
         <v>289</v>
       </c>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
       <c r="H20" s="74"/>
     </row>
     <row r="21" ht="19" customHeight="1">
@@ -3698,13 +3695,13 @@
         <v>290</v>
       </c>
       <c r="B21" s="66"/>
-      <c r="C21" t="s" s="112">
+      <c r="C21" t="s" s="111">
         <v>291</v>
       </c>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
       <c r="H21" s="74"/>
     </row>
     <row r="22" ht="19" customHeight="1">
@@ -3730,13 +3727,13 @@
         <v>296</v>
       </c>
       <c r="B23" s="66"/>
-      <c r="C23" t="s" s="112">
+      <c r="C23" t="s" s="111">
         <v>297</v>
       </c>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="102"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
       <c r="H23" s="74"/>
     </row>
     <row r="24" ht="19" customHeight="1">
@@ -3758,91 +3755,91 @@
       <c r="H24" s="67"/>
     </row>
     <row r="25" ht="19" customHeight="1">
-      <c r="A25" t="s" s="114">
+      <c r="A25" t="s" s="113">
         <v>302</v>
       </c>
-      <c r="B25" s="111"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="111"/>
-      <c r="G25" s="111"/>
-      <c r="H25" s="115"/>
+      <c r="B25" s="110"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="114"/>
     </row>
     <row r="26" ht="54.75" customHeight="1">
-      <c r="A26" t="s" s="117">
+      <c r="A26" t="s" s="116">
         <v>303</v>
       </c>
-      <c r="B26" s="118"/>
-      <c r="C26" t="s" s="119">
+      <c r="B26" s="117"/>
+      <c r="C26" t="s" s="118">
         <v>304</v>
       </c>
-      <c r="D26" s="104"/>
-      <c r="E26" t="s" s="120">
+      <c r="D26" s="103"/>
+      <c r="E26" t="s" s="119">
         <v>305</v>
       </c>
-      <c r="F26" t="s" s="120">
+      <c r="F26" t="s" s="119">
         <v>187</v>
       </c>
-      <c r="G26" t="s" s="120">
+      <c r="G26" t="s" s="119">
         <v>40</v>
       </c>
-      <c r="H26" s="121">
+      <c r="H26" s="120">
         <v>38555</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A11:H11"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -3860,15 +3857,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.71429" defaultRowHeight="13.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.1562" style="122" customWidth="1"/>
-    <col min="2" max="2" width="10" style="122" customWidth="1"/>
-    <col min="3" max="3" width="9" style="122" customWidth="1"/>
-    <col min="4" max="4" width="9" style="122" customWidth="1"/>
-    <col min="5" max="5" width="11.1562" style="122" customWidth="1"/>
-    <col min="6" max="6" width="11.1562" style="122" customWidth="1"/>
-    <col min="7" max="7" width="9" style="122" customWidth="1"/>
-    <col min="8" max="8" width="11.1562" style="122" customWidth="1"/>
-    <col min="9" max="256" width="9.73438" style="122" customWidth="1"/>
+    <col min="1" max="1" width="10.1562" style="121" customWidth="1"/>
+    <col min="2" max="2" width="10" style="121" customWidth="1"/>
+    <col min="3" max="3" width="9" style="121" customWidth="1"/>
+    <col min="4" max="4" width="9" style="121" customWidth="1"/>
+    <col min="5" max="5" width="11.1562" style="121" customWidth="1"/>
+    <col min="6" max="6" width="11.1562" style="121" customWidth="1"/>
+    <col min="7" max="7" width="9" style="121" customWidth="1"/>
+    <col min="8" max="8" width="11.1562" style="121" customWidth="1"/>
+    <col min="9" max="256" width="9.73438" style="121" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.5" customHeight="1">
@@ -3950,27 +3947,27 @@
       <c r="H5" s="22"/>
     </row>
     <row r="6" ht="19" customHeight="1">
-      <c r="A6" t="s" s="114">
+      <c r="A6" t="s" s="113">
         <v>307</v>
       </c>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="115"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="114"/>
     </row>
     <row r="7" ht="19" customHeight="1">
       <c r="A7" t="s" s="70">
         <v>308</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
       <c r="H7" s="74"/>
     </row>
     <row r="8" ht="19" customHeight="1">
@@ -3999,36 +3996,36 @@
       <c r="A9" t="s" s="70">
         <v>311</v>
       </c>
-      <c r="B9" s="102"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
       <c r="H9" s="74"/>
     </row>
     <row r="10" ht="19" customHeight="1">
       <c r="A10" t="s" s="70">
         <v>312</v>
       </c>
-      <c r="B10" s="102"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
       <c r="H10" s="74"/>
     </row>
     <row r="11" ht="19" customHeight="1">
       <c r="A11" t="s" s="70">
         <v>313</v>
       </c>
-      <c r="B11" s="102"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
       <c r="H11" s="74"/>
     </row>
     <row r="12" ht="19" customHeight="1">
@@ -4053,156 +4050,156 @@
       <c r="A13" t="s" s="70">
         <v>318</v>
       </c>
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
       <c r="H13" s="74"/>
     </row>
     <row r="14" ht="19" customHeight="1">
       <c r="A14" t="s" s="70">
         <v>319</v>
       </c>
-      <c r="B14" s="102"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
       <c r="H14" s="74"/>
     </row>
     <row r="15" ht="19" customHeight="1">
       <c r="A15" t="s" s="70">
         <v>320</v>
       </c>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
       <c r="H15" s="74"/>
     </row>
     <row r="16" ht="19" customHeight="1">
       <c r="A16" t="s" s="70">
         <v>321</v>
       </c>
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
       <c r="H16" s="74"/>
     </row>
     <row r="17" ht="40.5" customHeight="1">
       <c r="A17" t="s" s="70">
         <v>322</v>
       </c>
-      <c r="B17" s="102"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
       <c r="H17" s="74"/>
     </row>
     <row r="18" ht="19" customHeight="1">
       <c r="A18" t="s" s="70">
         <v>323</v>
       </c>
-      <c r="B18" s="102"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
       <c r="H18" s="74"/>
     </row>
     <row r="19" ht="30.75" customHeight="1">
       <c r="A19" t="s" s="70">
         <v>324</v>
       </c>
-      <c r="B19" s="102"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
       <c r="H19" s="74"/>
     </row>
     <row r="20" ht="19" customHeight="1">
       <c r="A20" t="s" s="70">
         <v>325</v>
       </c>
-      <c r="B20" s="102"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
       <c r="H20" s="74"/>
     </row>
     <row r="21" ht="19" customHeight="1">
       <c r="A21" t="s" s="70">
         <v>326</v>
       </c>
-      <c r="B21" s="102"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
       <c r="H21" s="74"/>
     </row>
     <row r="22" ht="19" customHeight="1">
       <c r="A22" t="s" s="70">
         <v>327</v>
       </c>
-      <c r="B22" s="102"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
       <c r="H22" s="74"/>
     </row>
     <row r="23" ht="19" customHeight="1">
       <c r="A23" t="s" s="70">
         <v>328</v>
       </c>
-      <c r="B23" s="102"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="102"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
       <c r="H23" s="74"/>
     </row>
     <row r="24" ht="19" customHeight="1">
-      <c r="A24" t="s" s="114">
+      <c r="A24" t="s" s="113">
         <v>329</v>
       </c>
-      <c r="B24" s="111"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="115"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="114"/>
     </row>
     <row r="25" ht="140.25" customHeight="1">
       <c r="A25" t="s" s="70">
         <v>330</v>
       </c>
-      <c r="B25" s="102"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
       <c r="H25" s="74"/>
     </row>
     <row r="26" ht="19" customHeight="1">
@@ -4236,69 +4233,69 @@
       <c r="H27" s="67"/>
     </row>
     <row r="28" ht="19.5" customHeight="1">
-      <c r="A28" t="s" s="117">
+      <c r="A28" t="s" s="116">
         <v>22</v>
       </c>
-      <c r="B28" s="118"/>
-      <c r="C28" t="s" s="120">
+      <c r="B28" s="117"/>
+      <c r="C28" t="s" s="119">
         <v>211</v>
       </c>
-      <c r="D28" s="118"/>
-      <c r="E28" s="118">
+      <c r="D28" s="117"/>
+      <c r="E28" s="117">
         <v>38560</v>
       </c>
-      <c r="F28" s="118"/>
-      <c r="G28" s="118"/>
-      <c r="H28" s="121"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A11:H11"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="A22:H22"/>
   </mergeCells>
   <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -4555,27 +4552,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="A2:H2"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -4912,48 +4909,48 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A11:H11"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G21:H21"/>
   </mergeCells>
   <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -6427,44 +6424,44 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B13:B38"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="C41:D41"/>
     <mergeCell ref="F5:I5"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="C15:C23"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="F4:I4"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B13:B38"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C23"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="C43:D43"/>
   </mergeCells>
   <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -6898,10 +6895,18 @@
       <c r="J14" t="s" s="71">
         <v>173</v>
       </c>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
+      <c r="K14" t="s" s="71">
+        <v>173</v>
+      </c>
+      <c r="L14" t="s" s="71">
+        <v>173</v>
+      </c>
+      <c r="M14" t="s" s="71">
+        <v>173</v>
+      </c>
+      <c r="N14" t="s" s="71">
+        <v>173</v>
+      </c>
       <c r="O14" s="66"/>
       <c r="P14" s="66"/>
       <c r="Q14" t="s" s="68">
@@ -6984,10 +6989,18 @@
       <c r="J17" t="s" s="75">
         <v>173</v>
       </c>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="76"/>
+      <c r="K17" t="s" s="75">
+        <v>173</v>
+      </c>
+      <c r="L17" t="s" s="75">
+        <v>173</v>
+      </c>
+      <c r="M17" t="s" s="75">
+        <v>173</v>
+      </c>
+      <c r="N17" t="s" s="75">
+        <v>173</v>
+      </c>
       <c r="O17" s="49"/>
       <c r="P17" s="49"/>
       <c r="Q17" t="s" s="68">
@@ -7044,45 +7057,45 @@
       <c r="R19" s="72"/>
     </row>
     <row r="20" ht="21.75" customHeight="1">
-      <c r="A20" s="77"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="78"/>
-      <c r="O20" s="78"/>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="78"/>
-      <c r="R20" s="79"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="77"/>
+      <c r="R20" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A6:R6"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="A3:E3"/>
     <mergeCell ref="E7:I7"/>
     <mergeCell ref="F3:K3"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:R6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q4:R4"/>
   </mergeCells>
   <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -7100,15 +7113,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.71429" defaultRowHeight="13.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.15625" style="80" customWidth="1"/>
-    <col min="2" max="2" width="17.2891" style="80" customWidth="1"/>
-    <col min="3" max="3" width="8" style="80" customWidth="1"/>
-    <col min="4" max="4" width="8" style="80" customWidth="1"/>
-    <col min="5" max="5" width="8" style="80" customWidth="1"/>
-    <col min="6" max="6" width="22.7344" style="80" customWidth="1"/>
-    <col min="7" max="7" width="6.28906" style="80" customWidth="1"/>
-    <col min="8" max="8" width="8.73438" style="80" customWidth="1"/>
-    <col min="9" max="256" width="9.73438" style="80" customWidth="1"/>
+    <col min="1" max="1" width="6.15625" style="79" customWidth="1"/>
+    <col min="2" max="2" width="17.2891" style="79" customWidth="1"/>
+    <col min="3" max="3" width="8" style="79" customWidth="1"/>
+    <col min="4" max="4" width="8" style="79" customWidth="1"/>
+    <col min="5" max="5" width="8" style="79" customWidth="1"/>
+    <col min="6" max="6" width="22.7344" style="79" customWidth="1"/>
+    <col min="7" max="7" width="6.28906" style="79" customWidth="1"/>
+    <col min="8" max="8" width="8.73438" style="79" customWidth="1"/>
+    <col min="9" max="256" width="9.73438" style="79" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -7136,58 +7149,58 @@
       <c r="H2" s="18"/>
     </row>
     <row r="3" ht="21.75" customHeight="1">
-      <c r="A3" t="s" s="81">
+      <c r="A3" t="s" s="80">
         <v>15</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" t="s" s="83">
+      <c r="B3" s="81"/>
+      <c r="C3" t="s" s="82">
         <v>185</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" t="s" s="83">
+      <c r="D3" s="81"/>
+      <c r="E3" t="s" s="82">
         <v>17</v>
       </c>
-      <c r="F3" s="82"/>
-      <c r="G3" t="s" s="83">
+      <c r="F3" s="81"/>
+      <c r="G3" t="s" s="82">
         <v>186</v>
       </c>
-      <c r="H3" s="84"/>
+      <c r="H3" s="83"/>
     </row>
     <row r="4" ht="21.75" customHeight="1">
-      <c r="A4" t="s" s="81">
+      <c r="A4" t="s" s="80">
         <v>18</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" t="s" s="83">
+      <c r="B4" s="81"/>
+      <c r="C4" t="s" s="82">
         <v>19</v>
       </c>
-      <c r="D4" s="82"/>
-      <c r="E4" t="s" s="83">
+      <c r="D4" s="81"/>
+      <c r="E4" t="s" s="82">
         <v>20</v>
       </c>
-      <c r="F4" s="82"/>
-      <c r="G4" t="s" s="83">
+      <c r="F4" s="81"/>
+      <c r="G4" t="s" s="82">
         <v>187</v>
       </c>
-      <c r="H4" s="84"/>
+      <c r="H4" s="83"/>
     </row>
     <row r="5" ht="21.75" customHeight="1">
-      <c r="A5" t="s" s="81">
+      <c r="A5" t="s" s="80">
         <v>22</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" t="s" s="83">
+      <c r="B5" s="81"/>
+      <c r="C5" t="s" s="82">
         <v>21</v>
       </c>
-      <c r="D5" s="82"/>
-      <c r="E5" t="s" s="83">
+      <c r="D5" s="81"/>
+      <c r="E5" t="s" s="82">
         <v>23</v>
       </c>
-      <c r="F5" s="82"/>
-      <c r="G5" s="85">
+      <c r="F5" s="81"/>
+      <c r="G5" s="84">
         <v>42558</v>
       </c>
-      <c r="H5" s="84"/>
+      <c r="H5" s="83"/>
     </row>
     <row r="6" ht="21.75" customHeight="1">
       <c r="A6" t="s" s="16">
@@ -7308,7 +7321,7 @@
       </c>
     </row>
     <row r="14" ht="35" customHeight="1">
-      <c r="A14" s="86">
+      <c r="A14" s="85">
         <v>5</v>
       </c>
       <c r="B14" s="33"/>
@@ -7317,29 +7330,29 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
-      <c r="H14" t="s" s="87">
+      <c r="H14" t="s" s="86">
         <v>197</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:H2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -7357,15 +7370,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.71429" defaultRowHeight="13.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.7344" style="88" customWidth="1"/>
-    <col min="2" max="2" width="10.7344" style="88" customWidth="1"/>
-    <col min="3" max="3" width="10.7344" style="88" customWidth="1"/>
-    <col min="4" max="4" width="10.7344" style="88" customWidth="1"/>
-    <col min="5" max="5" width="10.7344" style="88" customWidth="1"/>
-    <col min="6" max="6" width="10.7344" style="88" customWidth="1"/>
-    <col min="7" max="7" width="10.7344" style="88" customWidth="1"/>
-    <col min="8" max="8" width="10.7344" style="88" customWidth="1"/>
-    <col min="9" max="256" width="9.73438" style="88" customWidth="1"/>
+    <col min="1" max="1" width="10.7344" style="87" customWidth="1"/>
+    <col min="2" max="2" width="10.7344" style="87" customWidth="1"/>
+    <col min="3" max="3" width="10.7344" style="87" customWidth="1"/>
+    <col min="4" max="4" width="10.7344" style="87" customWidth="1"/>
+    <col min="5" max="5" width="10.7344" style="87" customWidth="1"/>
+    <col min="6" max="6" width="10.7344" style="87" customWidth="1"/>
+    <col min="7" max="7" width="10.7344" style="87" customWidth="1"/>
+    <col min="8" max="8" width="10.7344" style="87" customWidth="1"/>
+    <col min="9" max="256" width="9.73438" style="87" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -7447,16 +7460,16 @@
       <c r="H5" s="22"/>
     </row>
     <row r="6" ht="21.75" customHeight="1">
-      <c r="A6" t="s" s="89">
+      <c r="A6" t="s" s="88">
         <v>199</v>
       </c>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="91"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="90"/>
     </row>
     <row r="7" ht="21.75" customHeight="1">
       <c r="A7" t="s" s="19">
@@ -7523,52 +7536,52 @@
       <c r="H11" s="26"/>
     </row>
     <row r="12" ht="21.75" customHeight="1">
-      <c r="A12" t="s" s="92">
+      <c r="A12" t="s" s="91">
         <v>204</v>
       </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="96"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -7586,15 +7599,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.71429" defaultRowHeight="13.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12.7344" style="97" customWidth="1"/>
-    <col min="2" max="2" width="12.7344" style="97" customWidth="1"/>
-    <col min="3" max="3" width="12.7344" style="97" customWidth="1"/>
-    <col min="4" max="4" width="12.7344" style="97" customWidth="1"/>
-    <col min="5" max="5" width="12.7344" style="97" customWidth="1"/>
-    <col min="6" max="6" width="12.7344" style="97" customWidth="1"/>
-    <col min="7" max="7" width="12.7344" style="97" customWidth="1"/>
-    <col min="8" max="8" width="12.7344" style="97" customWidth="1"/>
-    <col min="9" max="256" width="9.73438" style="97" customWidth="1"/>
+    <col min="1" max="1" width="12.7344" style="96" customWidth="1"/>
+    <col min="2" max="2" width="12.7344" style="96" customWidth="1"/>
+    <col min="3" max="3" width="12.7344" style="96" customWidth="1"/>
+    <col min="4" max="4" width="12.7344" style="96" customWidth="1"/>
+    <col min="5" max="5" width="12.7344" style="96" customWidth="1"/>
+    <col min="6" max="6" width="12.7344" style="96" customWidth="1"/>
+    <col min="7" max="7" width="12.7344" style="96" customWidth="1"/>
+    <col min="8" max="8" width="12.7344" style="96" customWidth="1"/>
+    <col min="9" max="256" width="9.73438" style="96" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -7622,16 +7635,16 @@
       <c r="H2" s="67"/>
     </row>
     <row r="3" ht="21.75" customHeight="1">
-      <c r="A3" t="s" s="98">
+      <c r="A3" t="s" s="97">
         <v>207</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="100"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="99"/>
     </row>
     <row r="4" ht="21.75" customHeight="1">
       <c r="A4" t="s" s="65">
@@ -7664,7 +7677,7 @@
         <v>213</v>
       </c>
       <c r="F5" s="66"/>
-      <c r="G5" s="101">
+      <c r="G5" s="100">
         <v>0.7083333333333333</v>
       </c>
       <c r="H5" s="67"/>
@@ -7706,182 +7719,182 @@
       <c r="H7" s="67"/>
     </row>
     <row r="8" ht="21.75" customHeight="1">
-      <c r="A8" t="s" s="98">
+      <c r="A8" t="s" s="97">
         <v>220</v>
       </c>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="100"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="99"/>
     </row>
     <row r="9" ht="21.75" customHeight="1">
       <c r="A9" t="s" s="70">
         <v>221</v>
       </c>
-      <c r="B9" s="102"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
       <c r="H9" s="74"/>
     </row>
     <row r="10" ht="21.75" customHeight="1">
-      <c r="A10" t="s" s="98">
+      <c r="A10" t="s" s="97">
         <v>222</v>
       </c>
-      <c r="B10" s="99"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="100"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="99"/>
     </row>
     <row r="11" ht="61.5" customHeight="1">
       <c r="A11" t="s" s="70">
         <v>223</v>
       </c>
-      <c r="B11" s="102"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
       <c r="H11" s="74"/>
     </row>
     <row r="12" ht="21.75" customHeight="1">
-      <c r="A12" t="s" s="98">
+      <c r="A12" t="s" s="97">
         <v>224</v>
       </c>
-      <c r="B12" s="99"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="100"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="99"/>
     </row>
     <row r="13" ht="39.75" customHeight="1">
       <c r="A13" t="s" s="70">
         <v>225</v>
       </c>
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
       <c r="H13" s="74"/>
     </row>
     <row r="14" ht="21.75" customHeight="1">
-      <c r="A14" t="s" s="98">
+      <c r="A14" t="s" s="97">
         <v>226</v>
       </c>
-      <c r="B14" s="99"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="100"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="99"/>
     </row>
     <row r="15" ht="81.75" customHeight="1">
       <c r="A15" t="s" s="70">
         <v>227</v>
       </c>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
       <c r="H15" s="74"/>
     </row>
     <row r="16" ht="21.75" customHeight="1">
-      <c r="A16" t="s" s="98">
+      <c r="A16" t="s" s="97">
         <v>228</v>
       </c>
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="100"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="99"/>
     </row>
     <row r="17" ht="21.75" customHeight="1">
       <c r="A17" t="s" s="70">
         <v>229</v>
       </c>
-      <c r="B17" s="102"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
       <c r="H17" s="74"/>
     </row>
     <row r="18" ht="21.75" customHeight="1">
-      <c r="A18" t="s" s="98">
+      <c r="A18" t="s" s="97">
         <v>230</v>
       </c>
-      <c r="B18" s="99"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="100"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="99"/>
     </row>
     <row r="19" ht="57" customHeight="1">
-      <c r="A19" t="s" s="103">
+      <c r="A19" t="s" s="102">
         <v>231</v>
       </c>
-      <c r="B19" s="104"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="105"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A12:H12"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A19:H19"/>
   </mergeCells>
   <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -7899,31 +7912,31 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.71429" defaultRowHeight="13.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12.7344" style="106" customWidth="1"/>
-    <col min="2" max="2" width="12.7344" style="106" customWidth="1"/>
-    <col min="3" max="3" width="12.7344" style="106" customWidth="1"/>
-    <col min="4" max="4" width="12.7344" style="106" customWidth="1"/>
-    <col min="5" max="5" width="12.7344" style="106" customWidth="1"/>
-    <col min="6" max="6" width="12.7344" style="106" customWidth="1"/>
-    <col min="7" max="7" width="12.7344" style="106" customWidth="1"/>
-    <col min="8" max="8" width="12.7344" style="106" customWidth="1"/>
-    <col min="9" max="256" width="9.73438" style="106" customWidth="1"/>
+    <col min="1" max="1" width="12.7344" style="105" customWidth="1"/>
+    <col min="2" max="2" width="12.7344" style="105" customWidth="1"/>
+    <col min="3" max="3" width="12.7344" style="105" customWidth="1"/>
+    <col min="4" max="4" width="12.7344" style="105" customWidth="1"/>
+    <col min="5" max="5" width="12.7344" style="105" customWidth="1"/>
+    <col min="6" max="6" width="12.7344" style="105" customWidth="1"/>
+    <col min="7" max="7" width="12.7344" style="105" customWidth="1"/>
+    <col min="8" max="8" width="12.7344" style="105" customWidth="1"/>
+    <col min="9" max="256" width="9.73438" style="105" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="23" customHeight="1">
-      <c r="A1" t="s" s="107">
+      <c r="A1" t="s" s="106">
         <v>232</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
     </row>
     <row r="2" ht="17" customHeight="1">
-      <c r="A2" t="s" s="109">
+      <c r="A2" t="s" s="108">
         <v>14</v>
       </c>
       <c r="B2" s="17"/>
@@ -8019,16 +8032,16 @@
       <c r="H7" s="66"/>
     </row>
     <row r="8" ht="19" customHeight="1">
-      <c r="A8" t="s" s="110">
+      <c r="A8" t="s" s="109">
         <v>239</v>
       </c>
-      <c r="B8" s="111"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
     </row>
     <row r="9" ht="19" customHeight="1">
       <c r="A9" t="s" s="68">
@@ -8047,219 +8060,219 @@
       <c r="H9" s="66"/>
     </row>
     <row r="10" ht="19" customHeight="1">
-      <c r="A10" t="s" s="112">
+      <c r="A10" t="s" s="111">
         <v>243</v>
       </c>
-      <c r="B10" s="102"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" t="s" s="112">
+      <c r="B10" s="101"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" t="s" s="111">
         <v>244</v>
       </c>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
     </row>
     <row r="11" ht="33" customHeight="1">
-      <c r="A11" t="s" s="112">
+      <c r="A11" t="s" s="111">
         <v>245</v>
       </c>
-      <c r="B11" s="102"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" t="s" s="112">
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" t="s" s="111">
         <v>246</v>
       </c>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
     </row>
     <row r="12" ht="19" customHeight="1">
-      <c r="A12" t="s" s="112">
+      <c r="A12" t="s" s="111">
         <v>247</v>
       </c>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" t="s" s="112">
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" t="s" s="111">
         <v>248</v>
       </c>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
     </row>
     <row r="13" ht="19" customHeight="1">
-      <c r="A13" t="s" s="112">
+      <c r="A13" t="s" s="111">
         <v>249</v>
       </c>
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" t="s" s="112">
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" t="s" s="111">
         <v>250</v>
       </c>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
     </row>
     <row r="14" ht="19" customHeight="1">
-      <c r="A14" t="s" s="110">
+      <c r="A14" t="s" s="109">
         <v>251</v>
       </c>
-      <c r="B14" s="111"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
     </row>
     <row r="15" ht="16" customHeight="1">
-      <c r="A15" s="102"/>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
+      <c r="A15" s="101"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
     </row>
     <row r="16" ht="19" customHeight="1">
-      <c r="A16" t="s" s="110">
+      <c r="A16" t="s" s="109">
         <v>252</v>
       </c>
-      <c r="B16" s="111"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
     </row>
     <row r="17" ht="16" customHeight="1">
-      <c r="A17" s="102"/>
-      <c r="B17" s="102"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
+      <c r="A17" s="101"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
     </row>
     <row r="18" ht="19" customHeight="1">
-      <c r="A18" t="s" s="110">
+      <c r="A18" t="s" s="109">
         <v>253</v>
       </c>
-      <c r="B18" s="111"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="111"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
     </row>
     <row r="19" ht="16" customHeight="1">
-      <c r="A19" s="102"/>
-      <c r="B19" s="102"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
+      <c r="A19" s="101"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
     </row>
     <row r="20" ht="19" customHeight="1">
-      <c r="A20" t="s" s="110">
+      <c r="A20" t="s" s="109">
         <v>254</v>
       </c>
-      <c r="B20" s="111"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="111"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
     </row>
     <row r="21" ht="16" customHeight="1">
-      <c r="A21" s="102"/>
-      <c r="B21" s="102"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="102"/>
+      <c r="A21" s="101"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
     </row>
     <row r="22" ht="19" customHeight="1">
-      <c r="A22" t="s" s="110">
+      <c r="A22" t="s" s="109">
         <v>255</v>
       </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="111"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="110"/>
     </row>
     <row r="23" ht="16" customHeight="1">
-      <c r="A23" s="102"/>
-      <c r="B23" s="102"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="102"/>
+      <c r="A23" s="101"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A23:H23"/>
   </mergeCells>
   <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
